--- a/conference_registrations.xlsx
+++ b/conference_registrations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I373"/>
+  <dimension ref="A1:I376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13545,12 +13545,123 @@
         </is>
       </c>
       <c r="G373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Harrison Mbewe</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>MMMD</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>LUSAKA</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2025-09-06 05:52:21</t>
+        </is>
+      </c>
+      <c r="G374" t="b">
+        <v>0</v>
+      </c>
+      <c r="H374" t="b">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>annie mwape</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>MMMD</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>2025-09-06 06:15:40</t>
+        </is>
+      </c>
+      <c r="G375" t="b">
+        <v>1</v>
+      </c>
+      <c r="H375" t="b">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Bishonga Revelation</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>MMMD</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2025-09-06 06:21:08</t>
+        </is>
+      </c>
+      <c r="G376" t="b">
+        <v>1</v>
+      </c>
+      <c r="H376" t="b">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/conference_registrations.xlsx
+++ b/conference_registrations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I376"/>
+  <dimension ref="A1:I372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,11 +506,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -543,7 +543,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -580,7 +580,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -654,7 +654,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -691,7 +691,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -728,7 +728,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -765,7 +765,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -802,7 +802,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -839,7 +839,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -876,7 +876,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -950,11 +950,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G71" t="b">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G72" t="b">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G74" t="b">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G75" t="b">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G76" t="b">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G77" t="b">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G80" t="b">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G88" t="b">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G89" t="b">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G90" t="b">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G91" t="b">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G92" t="b">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G93" t="b">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G94" t="b">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G95" t="b">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G96" t="b">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G97" t="b">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G99" t="b">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G100" t="b">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G101" t="b">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G102" t="b">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G103" t="b">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G104" t="b">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G105" t="b">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G106" t="b">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G107" t="b">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G108" t="b">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G109" t="b">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G110" t="b">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G112" t="b">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G113" t="b">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G114" t="b">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G115" t="b">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G116" t="b">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G117" t="b">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G119" t="b">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G120" t="b">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G121" t="b">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G122" t="b">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G123" t="b">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G126" t="b">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G127" t="b">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G128" t="b">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G129" t="b">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G130" t="b">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G133" t="b">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G134" t="b">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G135" t="b">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G136" t="b">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G137" t="b">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G139" t="b">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G140" t="b">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G142" t="b">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G143" t="b">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G145" t="b">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G146" t="b">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G147" t="b">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G148" t="b">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G149" t="b">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G150" t="b">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G151" t="b">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G152" t="b">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G153" t="b">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G154" t="b">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G155" t="b">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G156" t="b">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G157" t="b">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G158" t="b">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G161" t="b">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G162" t="b">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G163" t="b">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G164" t="b">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G165" t="b">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G166" t="b">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G167" t="b">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G168" t="b">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G169" t="b">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G170" t="b">
@@ -6755,7 +6755,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G171" t="b">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G172" t="b">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G173" t="b">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G174" t="b">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G176" t="b">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G177" t="b">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G178" t="b">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G179" t="b">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G180" t="b">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G181" t="b">
@@ -7162,7 +7162,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G182" t="b">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G183" t="b">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G184" t="b">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G185" t="b">
@@ -7310,11 +7310,11 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186" t="b">
         <v>0</v>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G187" t="b">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G188" t="b">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G189" t="b">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G190" t="b">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G191" t="b">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G192" t="b">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G193" t="b">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G194" t="b">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G195" t="b">
@@ -7680,7 +7680,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G196" t="b">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G197" t="b">
@@ -7754,7 +7754,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G198" t="b">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G199" t="b">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G200" t="b">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G201" t="b">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G202" t="b">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G203" t="b">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G204" t="b">
@@ -8013,7 +8013,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G205" t="b">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G206" t="b">
@@ -8083,7 +8083,7 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G207" t="b">
@@ -8116,7 +8116,7 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G208" t="b">
@@ -8149,7 +8149,7 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G209" t="b">
@@ -8182,7 +8182,7 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G210" t="b">
@@ -8215,7 +8215,7 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G211" t="b">
@@ -8248,7 +8248,7 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G212" t="b">
@@ -8281,7 +8281,7 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G213" t="b">
@@ -8314,7 +8314,7 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -8347,7 +8347,7 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -8380,7 +8380,7 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G216" t="b">
@@ -8413,7 +8413,7 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G217" t="b">
@@ -8446,7 +8446,7 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G218" t="b">
@@ -8479,7 +8479,7 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G219" t="b">
@@ -8512,7 +8512,7 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G220" t="b">
@@ -8545,7 +8545,7 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G221" t="b">
@@ -8578,7 +8578,7 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -8611,7 +8611,7 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G223" t="b">
@@ -8644,7 +8644,7 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G224" t="b">
@@ -8677,7 +8677,7 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G225" t="b">
@@ -8710,7 +8710,7 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G226" t="b">
@@ -8743,7 +8743,7 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G227" t="b">
@@ -8776,7 +8776,7 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G228" t="b">
@@ -8809,7 +8809,7 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G229" t="b">
@@ -8842,7 +8842,7 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G230" t="b">
@@ -8875,7 +8875,7 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G231" t="b">
@@ -8908,7 +8908,7 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G232" t="b">
@@ -8941,7 +8941,7 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G233" t="b">
@@ -8978,7 +8978,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G234" t="b">
@@ -9015,7 +9015,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G235" t="b">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -9085,7 +9085,7 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G237" t="b">
@@ -9118,7 +9118,7 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G238" t="b">
@@ -9143,7 +9143,7 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G239" t="b">
@@ -9176,7 +9176,7 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G240" t="b">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Philimon Cheeba</t>
+          <t xml:space="preserve">Philimon Cheeba </t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -9209,7 +9209,7 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G241" t="b">
@@ -9242,7 +9242,7 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G242" t="b">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G243" t="b">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G244" t="b">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G245" t="b">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G246" t="b">
@@ -9427,7 +9427,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G247" t="b">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G248" t="b">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G249" t="b">
@@ -9516,25 +9516,29 @@
       <c r="A250" t="n">
         <v>249</v>
       </c>
-      <c r="B250" t="inlineStr"/>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Catherine Zulu</t>
+        </is>
+      </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Mukala Cooperative</t>
+          <t>Chazuka Mining</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Mwinilunga</t>
+          <t>Mkushi</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>North-western</t>
+          <t>Copperbelt</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G250" t="b">
@@ -9551,7 +9555,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Catherine Zulu</t>
+          <t>Elizabeth Zulu</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -9571,7 +9575,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G251" t="b">
@@ -9586,29 +9590,17 @@
       <c r="A252" t="n">
         <v>251</v>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Elizabeth Zulu</t>
-        </is>
-      </c>
+      <c r="B252" t="inlineStr"/>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Chazuka Mining</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Mkushi</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>Copperbelt</t>
-        </is>
-      </c>
+          <t>Tikukhalo</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G252" t="b">
@@ -9623,17 +9615,17 @@
       <c r="A253" t="n">
         <v>252</v>
       </c>
-      <c r="B253" t="inlineStr"/>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Tikukhalo</t>
-        </is>
-      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Bernard Chisala</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G253" t="b">
@@ -9650,7 +9642,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Bernard Chisala</t>
+          <t>Hellen Musenge</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -9658,7 +9650,7 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G254" t="b">
@@ -9675,15 +9667,23 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Hellen Musenge</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr"/>
-      <c r="D255" t="inlineStr"/>
+          <t>Lyzette Lumbongo</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>WETVAAZ</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Kitwe</t>
+        </is>
+      </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G255" t="b">
@@ -9700,12 +9700,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Lyzette Lumbongo</t>
+          <t>Pele Chikwakwa</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>WETVAAZ</t>
+          <t>ESMAZ</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -9716,7 +9716,7 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G256" t="b">
@@ -9733,7 +9733,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Pele Chikwakwa</t>
+          <t>Moffat Mukwala</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9749,7 +9749,7 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G257" t="b">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Moffat Mukwala</t>
+          <t>Charles Katwishi</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9782,7 +9782,7 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G258" t="b">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Charles Katwishi</t>
+          <t>Joseph Kasongo</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9815,7 +9815,7 @@
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G259" t="b">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Joseph Kasongo</t>
+          <t>Danial Mhango</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9848,7 +9848,7 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G260" t="b">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Danial Mhango</t>
+          <t>Peter Kalomo</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9881,7 +9881,7 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G261" t="b">
@@ -9898,23 +9898,23 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Peter Kalomo</t>
+          <t>Charles Kadoshi</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>ESMAZ</t>
+          <t>ZAGEMA</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Kitwe</t>
+          <t>Mwinilunga</t>
         </is>
       </c>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G262" t="b">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Charles Kadoshi</t>
+          <t>Charity Mwamba</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9941,13 +9941,13 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Mwinilunga</t>
+          <t>Lusaka</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G263" t="b">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Charity Mwamba</t>
+          <t>Charity Munkoyo</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9980,7 +9980,7 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G264" t="b">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Charity Munkoyo</t>
+          <t>Tina Choonya</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -10013,7 +10013,7 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G265" t="b">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Tina Choonya</t>
+          <t>Beauty Sibende</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -10046,7 +10046,7 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G266" t="b">
@@ -10063,7 +10063,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Beauty Sibende</t>
+          <t>Mwai Zulu</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -10073,13 +10073,13 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Lusaka</t>
+          <t>Kapiri</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G267" t="b">
@@ -10096,7 +10096,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Mwai Zulu</t>
+          <t>Grace Mumba</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -10106,13 +10106,13 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Kapiri</t>
+          <t>Kafue</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G268" t="b">
@@ -10129,7 +10129,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Grace Mumba</t>
+          <t>Edith Kabolesha</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -10139,13 +10139,13 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Kafue</t>
+          <t>Lusaka</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G269" t="b">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Edith Kabolesha</t>
+          <t>Dorothy Bweupe</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -10178,7 +10178,7 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G270" t="b">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Dorothy Bweupe</t>
+          <t>Ireen C Moonga</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -10211,7 +10211,7 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G271" t="b">
@@ -10228,7 +10228,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ireen C Moonga</t>
+          <t>Danielle Njoko</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -10238,13 +10238,13 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Lusaka</t>
+          <t>Kasempa</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G272" t="b">
@@ -10261,7 +10261,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Danielle Njoko</t>
+          <t>Sylvia Sivile</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -10271,13 +10271,13 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Kasempa</t>
+          <t>Lusaka</t>
         </is>
       </c>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G273" t="b">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Sylvia Sivile</t>
+          <t>Thereza Chikange</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -10304,13 +10304,13 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Lusaka</t>
+          <t>Lumezi</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G274" t="b">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Thereza Chikange</t>
+          <t>Wilbrod Mulenga</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -10337,13 +10337,13 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Lumezi</t>
+          <t>Livingstone</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G275" t="b">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Wilbrod Mulenga</t>
+          <t>Samatha Mumbi</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -10370,13 +10370,13 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Livingstone</t>
+          <t>Kasempa</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G276" t="b">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Samatha Mumbi</t>
+          <t>Christine Sally</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -10403,13 +10403,13 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Kasempa</t>
+          <t>Lusaka</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G277" t="b">
@@ -10426,7 +10426,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Christine Sally</t>
+          <t>Precious Maloni</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -10436,13 +10436,13 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Lusaka</t>
+          <t>Kasempa</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G278" t="b">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Precious Maloni</t>
+          <t>Joseph Hampongo</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -10475,7 +10475,7 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G279" t="b">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Joseph Hampongo</t>
+          <t>Mary kapikila</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -10502,13 +10502,13 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Kasempa</t>
+          <t>Kafue</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G280" t="b">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Mary kapikila</t>
+          <t>Joyce mulenga</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -10541,7 +10541,7 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G281" t="b">
@@ -10558,23 +10558,23 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Joyce mulenga</t>
+          <t>Daison kosamu</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>ZAGEMA</t>
+          <t>NWA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Kafue</t>
+          <t>Mwinilunga</t>
         </is>
       </c>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G282" t="b">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Daison kosamu</t>
+          <t>Mukwanu Kutauka</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -10601,13 +10601,13 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Mwinilunga</t>
+          <t>Solwezi</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G283" t="b">
@@ -10624,7 +10624,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Mukwanu Kutauka</t>
+          <t>Dexter Phiri</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10640,7 +10640,7 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G284" t="b">
@@ -10657,7 +10657,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Dexter Phiri</t>
+          <t>Brunwel Kasumbalesa</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10673,7 +10673,7 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G285" t="b">
@@ -10690,7 +10690,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Brunwel Kasumbalesa</t>
+          <t>Jesman Ngambela</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10706,7 +10706,7 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G286" t="b">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Jesman Ngambela</t>
+          <t>Dominic Kalelemba</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10739,7 +10739,7 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G287" t="b">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Dominic Kalelemba</t>
+          <t>Greatson Mulampwe</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10772,7 +10772,7 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G288" t="b">
@@ -10789,7 +10789,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Greatson Mulampwe</t>
+          <t>Evans Jamba</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10799,13 +10799,13 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Solwezi</t>
+          <t>Mufumbwe</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G289" t="b">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Evans Jamba</t>
+          <t>Susen Katendi Jampaho</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10838,7 +10838,7 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G290" t="b">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Susen Katendi Jampaho</t>
+          <t>Ider Musumali</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10871,7 +10871,7 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G291" t="b">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ider Musumali</t>
+          <t>Edward ngandu</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10898,13 +10898,13 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Mufumbwe</t>
+          <t>Solwezi</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G292" t="b">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Edward ngandu</t>
+          <t>Angela Kolovili</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10931,13 +10931,13 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Solwezi</t>
+          <t>Mufumbwe</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G293" t="b">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Angela Kolovili</t>
+          <t>Patrick Mulela</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10970,7 +10970,7 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G294" t="b">
@@ -10987,7 +10987,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Patrick Mulela</t>
+          <t>Tom Mankondo</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10997,13 +10997,13 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Mufumbwe</t>
+          <t>Solwezi</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G295" t="b">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Tom Mankondo</t>
+          <t>Fattima Hafana</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -11036,7 +11036,7 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G296" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Fattima Hafana</t>
+          <t>Lusekelo Kasonso</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -11069,7 +11069,7 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G297" t="b">
@@ -11086,7 +11086,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Lusekelo Kasonso</t>
+          <t>Maneya Manjimela</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -11102,7 +11102,7 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G298" t="b">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Maneya Manjimela</t>
+          <t>Brendah Mbilitu</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -11129,13 +11129,13 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Solwezi</t>
+          <t>Chavuma</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G299" t="b">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Brendah Mbilitu</t>
+          <t>Justin Samwilaya</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -11168,7 +11168,7 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G300" t="b">
@@ -11185,7 +11185,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Justin Samwilaya</t>
+          <t>Misheke Chinyama</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -11201,7 +11201,7 @@
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G301" t="b">
@@ -11218,7 +11218,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Misheke Chinyama</t>
+          <t>Francine Mukandi</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -11228,13 +11228,13 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Chavuma</t>
+          <t>Solwezi</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G302" t="b">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Francine Mukandi</t>
+          <t>Jackson Kalenga</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -11267,7 +11267,7 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G303" t="b">
@@ -11284,7 +11284,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Jackson Kalenga</t>
+          <t>Beatrice Likona</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -11300,7 +11300,7 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G304" t="b">
@@ -11317,23 +11317,23 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Beatrice Likona</t>
+          <t>Phinias J Njovu</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>NWA</t>
+          <t>Mkushi Association</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Solwezi</t>
+          <t>Mkushi</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G305" t="b">
@@ -11350,23 +11350,23 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Phinias J Njovu</t>
+          <t>Joseph Mwansa</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Mkushi Association</t>
+          <t>ZIGTA</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Mkushi</t>
+          <t>Lusaka</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G306" t="b">
@@ -11383,23 +11383,23 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Joseph Mwansa</t>
+          <t>Justina Mvula</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>ZIGTA</t>
+          <t>Lundazi Association</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Lusaka</t>
+          <t>Lundazi</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G307" t="b">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Justina Mvula</t>
+          <t>Maureen Banda</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -11432,7 +11432,7 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G308" t="b">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Maureen Banda</t>
+          <t>Elizabeth Zulu</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -11465,7 +11465,7 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G309" t="b">
@@ -11482,7 +11482,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Elizabeth Zulu</t>
+          <t>Abigail Nyirenda</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -11498,7 +11498,7 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G310" t="b">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Abigail Nyirenda</t>
+          <t>Scholastic Ngulube</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -11531,7 +11531,7 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G311" t="b">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Scholastic Ngulube</t>
+          <t>Paulina Munkhanya</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -11564,7 +11564,7 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G312" t="b">
@@ -11581,7 +11581,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Paulina Munkhanya</t>
+          <t>hope Chisamba</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -11597,7 +11597,7 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G313" t="b">
@@ -11614,7 +11614,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>hope Chisamba</t>
+          <t>Pamela Ngulube</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -11630,7 +11630,7 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G314" t="b">
@@ -11647,7 +11647,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Pamela Ngulube</t>
+          <t>Mercy Chansaya</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -11663,7 +11663,7 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G315" t="b">
@@ -11680,7 +11680,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Mercy Chansaya</t>
+          <t>Monica Phiri</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -11696,7 +11696,7 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G316" t="b">
@@ -11713,7 +11713,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Monica Phiri</t>
+          <t>Mercy Chisamba</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -11729,7 +11729,7 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G317" t="b">
@@ -11746,7 +11746,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Mercy Chisamba</t>
+          <t>Naomi Kantolo</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -11762,7 +11762,7 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G318" t="b">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Naomi Kantolo</t>
+          <t>Lickness Kalansa</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -11795,7 +11795,7 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G319" t="b">
@@ -11812,7 +11812,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Lickness Kalansa</t>
+          <t>Grace Chisamba</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -11828,7 +11828,7 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G320" t="b">
@@ -11845,7 +11845,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Grace Chisamba</t>
+          <t>Juma Mvula</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -11861,7 +11861,7 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G321" t="b">
@@ -11878,7 +11878,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Juma Mvula</t>
+          <t>Virginia Mphande</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -11894,7 +11894,7 @@
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G322" t="b">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Virginia Mphande</t>
+          <t>Dubekile Zulu</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -11927,7 +11927,7 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G323" t="b">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Dubekile Zulu</t>
+          <t>Christopher Nyirenda</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11960,7 +11960,7 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G324" t="b">
@@ -11977,23 +11977,23 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Christopher Nyirenda</t>
+          <t>James Njovu</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Lundazi Association</t>
+          <t>Youth Association</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Lundazi</t>
+          <t>Kitwe</t>
         </is>
       </c>
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G325" t="b">
@@ -12010,23 +12010,23 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>James Njovu</t>
+          <t>Ngobola muyembe</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Youth Association</t>
+          <t>SSA</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Kitwe</t>
+          <t>Lusaka</t>
         </is>
       </c>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G326" t="b">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Ngobola muyembe</t>
+          <t>Brendah Nglazi</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -12059,7 +12059,7 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G327" t="b">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Brendah Nglazi</t>
+          <t>Serge kabaso</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -12092,7 +12092,7 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G328" t="b">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Serge kabaso</t>
+          <t>Musa Mwanza</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -12125,7 +12125,7 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G329" t="b">
@@ -12142,7 +12142,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Musa Mwanza</t>
+          <t>Mathews Muntali</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -12158,7 +12158,7 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G330" t="b">
@@ -12175,7 +12175,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Mathews Muntali</t>
+          <t>Kelvin Kasuba</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -12191,7 +12191,7 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G331" t="b">
@@ -12208,7 +12208,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Kelvin Kasuba</t>
+          <t>Emmanual Lunda</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -12224,7 +12224,7 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G332" t="b">
@@ -12241,7 +12241,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Emmanual Lunda</t>
+          <t>Simon Njovu</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -12257,7 +12257,7 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G333" t="b">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Simon Njovu</t>
+          <t>Jackson Mulenga</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -12284,13 +12284,13 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Lusaka</t>
+          <t>Chililabombwe</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G334" t="b">
@@ -12307,7 +12307,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Jackson Mulenga</t>
+          <t>Jeff Mulenga</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -12323,7 +12323,7 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G335" t="b">
@@ -12340,7 +12340,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Jeff Mulenga</t>
+          <t>Trevor Njombi</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -12350,13 +12350,13 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Chililabombwe</t>
+          <t>Chingola</t>
         </is>
       </c>
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G336" t="b">
@@ -12373,7 +12373,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Trevor Njombi</t>
+          <t>Emmanual Silenga</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -12383,13 +12383,13 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Chingola</t>
+          <t>Kitwe</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G337" t="b">
@@ -12406,7 +12406,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Emmanual Silenga</t>
+          <t>Phinias  Njovu</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -12416,13 +12416,13 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Kitwe</t>
+          <t>Kabwe</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G338" t="b">
@@ -12439,23 +12439,23 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Phinias  Njovu</t>
+          <t>Mwiya Nyambe</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>SSA</t>
+          <t>Kalomo Association</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Kabwe</t>
+          <t>Kalomo</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G339" t="b">
@@ -12472,23 +12472,23 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Mwiya Nyambe</t>
+          <t>Ronica Mukwala</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Kalomo Association</t>
+          <t>WEEMIA</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Kalomo</t>
+          <t>Kitwe</t>
         </is>
       </c>
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G340" t="b">
@@ -12505,7 +12505,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ronica Mukwala</t>
+          <t>fatu Mwalimu</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -12521,7 +12521,7 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G341" t="b">
@@ -12538,7 +12538,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>fatu Mwalimu</t>
+          <t>Linda k Mubanga</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -12554,7 +12554,7 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G342" t="b">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Linda k Mubanga</t>
+          <t>Zainab Mwanza</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12587,7 +12587,7 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G343" t="b">
@@ -12604,7 +12604,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Zainab Mwanza</t>
+          <t>Francine M Banda</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12614,13 +12614,13 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Kitwe</t>
+          <t>Chipata</t>
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G344" t="b">
@@ -12637,23 +12637,23 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Francine M Banda</t>
+          <t>Ben Samu</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>WEEMIA</t>
+          <t>Bwigem Mining LTD</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Chipata</t>
+          <t>Lufwanyama</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G345" t="b">
@@ -12670,7 +12670,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Ben Samu</t>
+          <t>Mary Muntambwa</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12686,7 +12686,7 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G346" t="b">
@@ -12703,23 +12703,23 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Mary Muntambwa</t>
+          <t>John Mwanga</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Bwigem Mining LTD</t>
+          <t>ZAGEMA</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Lufwanyama</t>
+          <t>Lusaka</t>
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G347" t="b">
@@ -12736,23 +12736,15 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>John Mwanga</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>ZAGEMA</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>Lusaka</t>
-        </is>
-      </c>
+          <t>Enerst Malama</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G348" t="b">
@@ -12769,15 +12761,23 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Enerst Malama</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr"/>
+          <t>Evarito Mvula</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Dodoli Mining</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Lundazi</t>
+        </is>
+      </c>
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G349" t="b">
@@ -12794,7 +12794,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Evarito Mvula</t>
+          <t>Mupeta Banda</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12810,7 +12810,7 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G350" t="b">
@@ -12827,23 +12827,15 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Mupeta Banda</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>Dodoli Mining</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>Lundazi</t>
-        </is>
-      </c>
+          <t>Bernard Chansa</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="inlineStr"/>
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G351" t="b">
@@ -12858,17 +12850,25 @@
       <c r="A352" t="n">
         <v>351</v>
       </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>Bernard Chansa</t>
-        </is>
-      </c>
-      <c r="C352" t="inlineStr"/>
-      <c r="D352" t="inlineStr"/>
-      <c r="E352" t="inlineStr"/>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Fyakufolobolafye  Cooperative</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>MPOROKOSO</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>NORTHERN</t>
+        </is>
+      </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G352" t="b">
@@ -12883,25 +12883,17 @@
       <c r="A353" t="n">
         <v>352</v>
       </c>
-      <c r="B353" t="inlineStr"/>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>Fyakufolobolafye  Cooperative</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>MPOROKOSO</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr">
-        <is>
-          <t>NORTHERN</t>
-        </is>
-      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Chibuta Kayashi</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr"/>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G353" t="b">
@@ -12916,17 +12908,25 @@
       <c r="A354" t="n">
         <v>353</v>
       </c>
-      <c r="B354" t="inlineStr"/>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Anderson Matutu</t>
+        </is>
+      </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Kukumba Na Kulima Cooperative</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr"/>
+          <t>Dash logistics and Mining Services</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Mpongwe</t>
+        </is>
+      </c>
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G354" t="b">
@@ -12946,12 +12946,20 @@
           <t>Chibuta Kayashi</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr"/>
-      <c r="D355" t="inlineStr"/>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Dash logistics and Mining Services</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Mpongwe</t>
+        </is>
+      </c>
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G355" t="b">
@@ -12968,23 +12976,23 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Anderson Matutu</t>
+          <t>Francis Talanki</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Dash logistics and Mining Services</t>
+          <t>Talang Mining Company LTD</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Mpongwe</t>
+          <t>Mpika</t>
         </is>
       </c>
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G356" t="b">
@@ -12999,25 +13007,25 @@
       <c r="A357" t="n">
         <v>356</v>
       </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>Chibuta Kayashi</t>
-        </is>
-      </c>
+      <c r="B357" t="inlineStr"/>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Dash logistics and Mining Services</t>
+          <t>Lukamantano Youth Multi-purpose Cooperative</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Mpongwe</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr"/>
+          <t>Itezhi-tezhi</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Southern</t>
+        </is>
+      </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G357" t="b">
@@ -13034,23 +13042,19 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Francis Talanki</t>
+          <t>Thomas Mwale</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Talang Mining Company LTD</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>Mpika</t>
-        </is>
-      </c>
+          <t>Titukule Youth Mining Cooperative</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr"/>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G358" t="b">
@@ -13065,25 +13069,21 @@
       <c r="A359" t="n">
         <v>358</v>
       </c>
-      <c r="B359" t="inlineStr"/>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>John Nyirenda</t>
+        </is>
+      </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Lukamantano Youth Multi-purpose Cooperative</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>Itezhi-tezhi</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>Southern</t>
-        </is>
-      </c>
+          <t>Titukule Youth Mining Cooperative</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G359" t="b">
@@ -13100,19 +13100,19 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Thomas Mwale</t>
+          <t>Lona Samuel</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Titukule Youth Mining Cooperative</t>
+          <t>Chimwelelende Mining</t>
         </is>
       </c>
       <c r="D360" t="inlineStr"/>
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G360" t="b">
@@ -13129,19 +13129,27 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>John Nyirenda</t>
+          <t>Angelina Tembo</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Titukule Youth Mining Cooperative</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr"/>
-      <c r="E361" t="inlineStr"/>
+          <t>MATSATSE Minerals LLT</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G361" t="b">
@@ -13158,19 +13166,27 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Lona Samuel</t>
+          <t>Ireen Mwansa</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Chimwelelende Mining</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr"/>
-      <c r="E362" t="inlineStr"/>
+          <t>Surgi Tech LTD</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Serenje</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G362" t="b">
@@ -13188,14 +13204,22 @@
       <c r="B363" t="inlineStr"/>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Tweleshe Cooperative</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr"/>
-      <c r="E363" t="inlineStr"/>
+          <t>Kamdec Investment LTD</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Kafue</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G363" t="b">
@@ -13210,29 +13234,25 @@
       <c r="A364" t="n">
         <v>363</v>
       </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>Angelina Tembo</t>
-        </is>
-      </c>
+      <c r="B364" t="inlineStr"/>
       <c r="C364" t="inlineStr">
         <is>
-          <t>MATSATSE Minerals LLT</t>
+          <t>Doug Morgar Multi-purpose Cooperative</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Lusaka</t>
+          <t>Kalomo</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Lusaka</t>
+          <t>Southern</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G364" t="b">
@@ -13247,29 +13267,25 @@
       <c r="A365" t="n">
         <v>364</v>
       </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>Ireen Mwansa</t>
-        </is>
-      </c>
+      <c r="B365" t="inlineStr"/>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Surgi Tech LTD</t>
+          <t>Chama Miners</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Serenje</t>
+          <t>Chama</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>Eastern</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G365" t="b">
@@ -13284,25 +13300,29 @@
       <c r="A366" t="n">
         <v>365</v>
       </c>
-      <c r="B366" t="inlineStr"/>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Festus Mukashika</t>
+        </is>
+      </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Kamdec Investment LTD</t>
+          <t>Twatota Mine</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Kafue</t>
+          <t>Nyimba</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Lusaka</t>
+          <t>Eastern</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G366" t="b">
@@ -13317,25 +13337,29 @@
       <c r="A367" t="n">
         <v>366</v>
       </c>
-      <c r="B367" t="inlineStr"/>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Rabson Mwale</t>
+        </is>
+      </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Doug Morgar Multi-purpose Cooperative</t>
+          <t>Podasak Extract Mining LTD</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Kalomo</t>
+          <t>Mwinilunga</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Southern</t>
+          <t>North western</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G367" t="b">
@@ -13350,17 +13374,29 @@
       <c r="A368" t="n">
         <v>367</v>
       </c>
-      <c r="B368" t="inlineStr"/>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Precious Mwaka Kalenga Rusmey</t>
+        </is>
+      </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>N'gandu Mining</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr"/>
-      <c r="E368" t="inlineStr"/>
+          <t>Podasak Extract Mining LTD</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Mwinilunga</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>North western</t>
+        </is>
+      </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G368" t="b">
@@ -13375,25 +13411,29 @@
       <c r="A369" t="n">
         <v>368</v>
       </c>
-      <c r="B369" t="inlineStr"/>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Masitaki Musamba</t>
+        </is>
+      </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Chama Miners</t>
+          <t>SAMAMAKA GERMSTONE LTD</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Chama</t>
+          <t>Lufwanyama</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Eastern</t>
+          <t>Copperbelt</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G369" t="b">
@@ -13410,27 +13450,19 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Festus Mukashika</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>Twatota Mine</t>
-        </is>
-      </c>
+          <t>Masitaki Musamba</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr"/>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Nyimba</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>Eastern</t>
-        </is>
-      </c>
+          <t>Mpika</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G370" t="b">
@@ -13447,27 +13479,23 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Rabson Mwale</t>
+          <t>Richard Mabukweanu</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Podasak Extract Mining LTD</t>
+          <t>Chibulu Tulipamo Mining</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Mwinilunga</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>North western</t>
-        </is>
-      </c>
+          <t>Mpika</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G371" t="b">
@@ -13484,27 +13512,23 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Precious Mwaka Kalenga Rusmey</t>
+          <t xml:space="preserve">Philimon Cheeba </t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Podasak Extract Mining LTD</t>
+          <t>Chibulutulipamo Mining LTD</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Mwinilunga</t>
-        </is>
-      </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>North western</t>
-        </is>
-      </c>
+          <t>Mpika</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2025-09-05 11:31:52</t>
+          <t>2025-09-08 00:39:59</t>
         </is>
       </c>
       <c r="G372" t="b">
@@ -13514,154 +13538,6 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>372</v>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>Enock Chifunda</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>MMMD</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>Lusaka</t>
-        </is>
-      </c>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>Lusaka</t>
-        </is>
-      </c>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>2025-09-05 11:38:56</t>
-        </is>
-      </c>
-      <c r="G373" t="b">
-        <v>1</v>
-      </c>
-      <c r="H373" t="b">
-        <v>1</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>373</v>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>Harrison Mbewe</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>MMMD</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>LUSAKA</t>
-        </is>
-      </c>
-      <c r="E374" t="inlineStr">
-        <is>
-          <t>Lusaka</t>
-        </is>
-      </c>
-      <c r="F374" t="inlineStr">
-        <is>
-          <t>2025-09-06 05:52:21</t>
-        </is>
-      </c>
-      <c r="G374" t="b">
-        <v>0</v>
-      </c>
-      <c r="H374" t="b">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>374</v>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>annie mwape</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>MMMD</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>Lusaka</t>
-        </is>
-      </c>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>Lusaka</t>
-        </is>
-      </c>
-      <c r="F375" t="inlineStr">
-        <is>
-          <t>2025-09-06 06:15:40</t>
-        </is>
-      </c>
-      <c r="G375" t="b">
-        <v>1</v>
-      </c>
-      <c r="H375" t="b">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>375</v>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>Bishonga Revelation</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>MMMD</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>Lusaka</t>
-        </is>
-      </c>
-      <c r="E376" t="inlineStr">
-        <is>
-          <t>Lusaka</t>
-        </is>
-      </c>
-      <c r="F376" t="inlineStr">
-        <is>
-          <t>2025-09-06 06:21:08</t>
-        </is>
-      </c>
-      <c r="G376" t="b">
-        <v>1</v>
-      </c>
-      <c r="H376" t="b">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/conference_registrations.xlsx
+++ b/conference_registrations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I372"/>
+  <dimension ref="A1:I435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13539,6 +13539,2221 @@
       </c>
       <c r="I372" t="inlineStr"/>
     </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Christine Chibobo</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>WETVAZ</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Kafue</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G373" t="b">
+        <v>0</v>
+      </c>
+      <c r="H373" t="b">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Elias Kampamba</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Nyatungu Multi-purpose Cooperative Society Limited</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Mwinilunga</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>North-western</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G374" t="b">
+        <v>0</v>
+      </c>
+      <c r="H374" t="b">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Martha Kembo</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Kukumba Na Kulima Cooperative</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Chisamba</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G375" t="b">
+        <v>0</v>
+      </c>
+      <c r="H375" t="b">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Mwenya Kakoma</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Dash logistics and Mining Services</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Mpongwe</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G376" t="b">
+        <v>0</v>
+      </c>
+      <c r="H376" t="b">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Thomas Mwale</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Titukule Youth Mining Cooperative</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Lumezi</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G377" t="b">
+        <v>0</v>
+      </c>
+      <c r="H377" t="b">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>John Nyirenda</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Titukule Youth Mining Cooperative</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Lumezi</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G378" t="b">
+        <v>0</v>
+      </c>
+      <c r="H378" t="b">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Lona Samuel</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Chimwelelende Mining</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Lumezi</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G379" t="b">
+        <v>0</v>
+      </c>
+      <c r="H379" t="b">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Aaron Banda</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Chimwelelende Mining</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Lumezi</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G380" t="b">
+        <v>0</v>
+      </c>
+      <c r="H380" t="b">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Bernis Mwanza</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Kamdec Investment LTD</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G381" t="b">
+        <v>0</v>
+      </c>
+      <c r="H381" t="b">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Patson Monde</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Tawansangthong Mining LTD</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Choma</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>Southern</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G382" t="b">
+        <v>0</v>
+      </c>
+      <c r="H382" t="b">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Milika Mwale</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Meemi Miners and Suppliers LTD</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Luwingu</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>NORTHERN</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G383" t="b">
+        <v>0</v>
+      </c>
+      <c r="H383" t="b">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Rodwell Malama</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Twapenga Mining LTD</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Lufwanyama</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G384" t="b">
+        <v>0</v>
+      </c>
+      <c r="H384" t="b">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Caroline Makumba</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Young Women in Mining</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Livingstone</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>Southern</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G385" t="b">
+        <v>0</v>
+      </c>
+      <c r="H385" t="b">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Getrude Mundia</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>AZWIM</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr"/>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G386" t="b">
+        <v>0</v>
+      </c>
+      <c r="H386" t="b">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Stephania Nkole</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Lumbanyani Women Club</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Chisamba</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G387" t="b">
+        <v>0</v>
+      </c>
+      <c r="H387" t="b">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Maggie Mwenya</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Lumbanyani Women Club</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Chisamba</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G388" t="b">
+        <v>0</v>
+      </c>
+      <c r="H388" t="b">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Priscilla Mumba Chabala</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Zuba Cooperative</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
+      <c r="E389" t="inlineStr"/>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G389" t="b">
+        <v>0</v>
+      </c>
+      <c r="H389" t="b">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Malama Musonda</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Zuba Cooperative</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G390" t="b">
+        <v>0</v>
+      </c>
+      <c r="H390" t="b">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Betty Chise</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Blessing Cooperative</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr"/>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G391" t="b">
+        <v>0</v>
+      </c>
+      <c r="H391" t="b">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Marjorie Mumba</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Blessing Cooperative</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr"/>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G392" t="b">
+        <v>0</v>
+      </c>
+      <c r="H392" t="b">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Margie Nkole</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr"/>
+      <c r="D393" t="inlineStr"/>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G393" t="b">
+        <v>0</v>
+      </c>
+      <c r="H393" t="b">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Martha Musonda</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr"/>
+      <c r="D394" t="inlineStr"/>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G394" t="b">
+        <v>0</v>
+      </c>
+      <c r="H394" t="b">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Mr.MacDonald Longwe</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>ZIGTA</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G395" t="b">
+        <v>0</v>
+      </c>
+      <c r="H395" t="b">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Mrs. Gloria Kumwende</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>ZIGTA</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G396" t="b">
+        <v>0</v>
+      </c>
+      <c r="H396" t="b">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Mrs. Florence Sameta</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>ZIGTA</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G397" t="b">
+        <v>0</v>
+      </c>
+      <c r="H397" t="b">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Mr. Ram Auerbach</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>ZIGTA</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G398" t="b">
+        <v>0</v>
+      </c>
+      <c r="H398" t="b">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Mr Pule Banda</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>ZIGTA</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G399" t="b">
+        <v>0</v>
+      </c>
+      <c r="H399" t="b">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Mr Alex Samawaya</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>ZIGTA</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G400" t="b">
+        <v>0</v>
+      </c>
+      <c r="H400" t="b">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Mrs Josephine Ngosa</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>ZIGTA</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G401" t="b">
+        <v>0</v>
+      </c>
+      <c r="H401" t="b">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>401</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Mr Lameck Sakala</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>ZIGTA</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G402" t="b">
+        <v>0</v>
+      </c>
+      <c r="H402" t="b">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>402</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Mr Jones Kapaso</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>ZIGTA</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G403" t="b">
+        <v>0</v>
+      </c>
+      <c r="H403" t="b">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>403</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Chiliboyi Ivo</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Shuriz Mining LTD</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Lufwanyama</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G404" t="b">
+        <v>0</v>
+      </c>
+      <c r="H404" t="b">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>404</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Charles Wamulwange</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Sandland Resources  LTD</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Kambompo</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>North-western</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G405" t="b">
+        <v>0</v>
+      </c>
+      <c r="H405" t="b">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>405</v>
+      </c>
+      <c r="B406" t="inlineStr"/>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Blessing Cooperative</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Mumbwa</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr"/>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G406" t="b">
+        <v>0</v>
+      </c>
+      <c r="H406" t="b">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>406</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Desai Miyoba</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Artisanal License</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Mumbwa</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G407" t="b">
+        <v>0</v>
+      </c>
+      <c r="H407" t="b">
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>407</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Doreen Miyoba</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Artisanal License</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Mumbwa</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G408" t="b">
+        <v>0</v>
+      </c>
+      <c r="H408" t="b">
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>408</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Kiana Mwaba</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>LUSSMA</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Kawambwa</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>Luapula</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G409" t="b">
+        <v>0</v>
+      </c>
+      <c r="H409" t="b">
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>409</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Martha Mwila Muchipi</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>LUSSMA</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>Kawambwa</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>Luapula</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G410" t="b">
+        <v>0</v>
+      </c>
+      <c r="H410" t="b">
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>410</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Christopher Chilangwa</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>LUSSMA</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>Mansa</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>Luapula</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G411" t="b">
+        <v>0</v>
+      </c>
+      <c r="H411" t="b">
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>411</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>John Chivweta</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>LUSSMA</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Mansa</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>Luapula</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G412" t="b">
+        <v>0</v>
+      </c>
+      <c r="H412" t="b">
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>412</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Gabby Mwaba</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>LUSSMA</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>Kawambwa</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>Luapula</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G413" t="b">
+        <v>0</v>
+      </c>
+      <c r="H413" t="b">
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>413</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Jean Paul Bitoumou Betolo</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Better Life Community Initiative Zambia</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G414" t="b">
+        <v>0</v>
+      </c>
+      <c r="H414" t="b">
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>414</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Moses Paikani Mwansa</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Better Life Community Initiative Zambia</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G415" t="b">
+        <v>0</v>
+      </c>
+      <c r="H415" t="b">
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>415</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Eng. Derrick Mwengula</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>University of Informationand Communication</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G416" t="b">
+        <v>0</v>
+      </c>
+      <c r="H416" t="b">
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>416</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>David Kaumba</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>University of Informationand Communication</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G417" t="b">
+        <v>0</v>
+      </c>
+      <c r="H417" t="b">
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>417</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Robby Mwanakaambwa</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>LAVUPONDE COOPERATIVE</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Mpika</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>NORTHERN</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G418" t="b">
+        <v>0</v>
+      </c>
+      <c r="H418" t="b">
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>418</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Francisco M Namaonga</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>LAVUPONDE COOPERATIVE</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Mpika</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>NORTHERN</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G419" t="b">
+        <v>0</v>
+      </c>
+      <c r="H419" t="b">
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>419</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Alexander Lawrence</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Lusaka Chamber of Commerce</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G420" t="b">
+        <v>0</v>
+      </c>
+      <c r="H420" t="b">
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>420</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>HENRY MUCHEMWA BWEMBYA</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>OPTICOM INVESTMENTS ltd</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G421" t="b">
+        <v>0</v>
+      </c>
+      <c r="H421" t="b">
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>421</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Musonda Musonda</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>YSM Charted Accountants</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G422" t="b">
+        <v>0</v>
+      </c>
+      <c r="H422" t="b">
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>422</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Paul Siame</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>YSM Charted Accountants</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G423" t="b">
+        <v>0</v>
+      </c>
+      <c r="H423" t="b">
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>423</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Bena Kaimbi</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Kaole Cooperative</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Mansa</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G424" t="b">
+        <v>0</v>
+      </c>
+      <c r="H424" t="b">
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>424</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Milmer Chinyama</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr"/>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>Chavuma</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G425" t="b">
+        <v>0</v>
+      </c>
+      <c r="H425" t="b">
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>425</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Steven Minganja</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Chavuma</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G426" t="b">
+        <v>0</v>
+      </c>
+      <c r="H426" t="b">
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>426</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Chinyama Musoka</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Chavuma</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G427" t="b">
+        <v>0</v>
+      </c>
+      <c r="H427" t="b">
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>427</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Emeldah Milimo</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr"/>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G428" t="b">
+        <v>0</v>
+      </c>
+      <c r="H428" t="b">
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>428</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Lorraine Chibbonta</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>MELOKS AGENCIES LIMITED</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G429" t="b">
+        <v>0</v>
+      </c>
+      <c r="H429" t="b">
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>429</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Sarah Zulu Munsanje</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>MELOKS AGENCIES LIMITED</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G430" t="b">
+        <v>0</v>
+      </c>
+      <c r="H430" t="b">
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>430</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Maxmillian Kabwe</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Kuchime Mining LTD</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Chisamba</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G431" t="b">
+        <v>0</v>
+      </c>
+      <c r="H431" t="b">
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>431</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Danny Yumba</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Makumba Company LTD</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Chisamba</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G432" t="b">
+        <v>0</v>
+      </c>
+      <c r="H432" t="b">
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>432</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Ms Kasoti</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>NWA</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Solwezi</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>North-western</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G433" t="b">
+        <v>0</v>
+      </c>
+      <c r="H433" t="b">
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>433</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Maimbo Munahikanzele</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Luapula Small Scale Mining Cooperative Union</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Mansa</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>Luapula</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G434" t="b">
+        <v>0</v>
+      </c>
+      <c r="H434" t="b">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>434</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Theresa Chikonde </t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Thabenzi General Dealers LTD</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>2025-09-08 07:11:08</t>
+        </is>
+      </c>
+      <c r="G435" t="b">
+        <v>0</v>
+      </c>
+      <c r="H435" t="b">
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/conference_registrations.xlsx
+++ b/conference_registrations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I435"/>
+  <dimension ref="A1:I498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,11 +506,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -543,7 +543,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -580,11 +580,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -617,11 +617,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -654,7 +654,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -691,11 +691,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -728,7 +728,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -765,7 +765,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -802,11 +802,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -876,11 +876,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -913,11 +913,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -987,11 +987,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -1024,11 +1024,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -1061,11 +1061,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1098,11 +1098,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -1135,11 +1135,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -1172,11 +1172,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1209,11 +1209,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1246,11 +1246,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1283,11 +1283,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1394,11 +1394,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1431,11 +1431,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -1468,11 +1468,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1505,11 +1505,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -1542,11 +1542,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1579,11 +1579,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1616,11 +1616,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1690,11 +1690,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1727,11 +1727,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1764,11 +1764,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1801,11 +1801,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1838,11 +1838,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1875,11 +1875,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1912,11 +1912,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1949,11 +1949,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1986,11 +1986,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2060,11 +2060,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -2097,11 +2097,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2171,11 +2171,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -2208,11 +2208,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2282,11 +2282,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -2356,11 +2356,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -2393,11 +2393,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -2430,11 +2430,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -2467,11 +2467,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -2504,11 +2504,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2541,11 +2541,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2578,11 +2578,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2615,11 +2615,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2689,11 +2689,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2726,11 +2726,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -2800,11 +2800,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -2911,11 +2911,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2948,11 +2948,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3022,11 +3022,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -3059,11 +3059,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -3096,11 +3096,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G74" t="b">
@@ -3207,11 +3207,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G76" t="b">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G77" t="b">
@@ -3318,11 +3318,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -3392,11 +3392,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -3429,11 +3429,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -3540,11 +3540,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -3577,11 +3577,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -3614,11 +3614,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -3725,11 +3725,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G90" t="b">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3836,11 +3836,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3873,11 +3873,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -3910,11 +3910,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3947,11 +3947,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G96" t="b">
@@ -4021,11 +4021,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -4058,11 +4058,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -4095,11 +4095,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G100" t="b">
@@ -4169,11 +4169,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -4206,11 +4206,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -4243,11 +4243,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -4280,11 +4280,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -4317,11 +4317,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -4354,11 +4354,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -4391,11 +4391,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -4428,11 +4428,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -4465,11 +4465,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -4502,11 +4502,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -4539,11 +4539,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -4576,11 +4576,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -4613,11 +4613,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -4687,11 +4687,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -4724,11 +4724,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -4761,11 +4761,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
@@ -4798,11 +4798,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
@@ -4835,11 +4835,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" t="b">
         <v>0</v>
@@ -4872,11 +4872,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -4909,11 +4909,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="b">
         <v>0</v>
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -5094,11 +5094,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="b">
         <v>0</v>
@@ -5131,11 +5131,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="b">
         <v>0</v>
@@ -5168,11 +5168,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="b">
         <v>0</v>
@@ -5205,11 +5205,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="b">
         <v>0</v>
@@ -5279,11 +5279,11 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="b">
         <v>0</v>
@@ -5316,11 +5316,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="b">
         <v>0</v>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G133" t="b">
@@ -5390,11 +5390,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="b">
         <v>0</v>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G135" t="b">
@@ -5464,11 +5464,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="b">
         <v>0</v>
@@ -5501,11 +5501,11 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="b">
         <v>0</v>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="b">
         <v>0</v>
@@ -5612,7 +5612,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G140" t="b">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -5686,11 +5686,11 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="b">
         <v>0</v>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G143" t="b">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -5793,11 +5793,11 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" t="b">
         <v>0</v>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G146" t="b">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G147" t="b">
@@ -5904,11 +5904,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="b">
         <v>0</v>
@@ -5941,11 +5941,11 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" t="b">
         <v>0</v>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G150" t="b">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G151" t="b">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G152" t="b">
@@ -6089,11 +6089,11 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" t="b">
         <v>0</v>
@@ -6126,11 +6126,11 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
@@ -6163,11 +6163,11 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="b">
         <v>0</v>
@@ -6200,11 +6200,11 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="b">
         <v>0</v>
@@ -6237,11 +6237,11 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" t="b">
         <v>0</v>
@@ -6274,11 +6274,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="b">
         <v>0</v>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G161" t="b">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G162" t="b">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G163" t="b">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G164" t="b">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G165" t="b">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G166" t="b">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G167" t="b">
@@ -6644,11 +6644,11 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168" t="b">
         <v>0</v>
@@ -6681,11 +6681,11 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" t="b">
         <v>0</v>
@@ -6718,7 +6718,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G170" t="b">
@@ -6755,7 +6755,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G171" t="b">
@@ -6792,11 +6792,11 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="b">
         <v>0</v>
@@ -6829,11 +6829,11 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" t="b">
         <v>0</v>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G174" t="b">
@@ -6903,11 +6903,11 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="b">
         <v>0</v>
@@ -6940,11 +6940,11 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" t="b">
         <v>0</v>
@@ -6977,11 +6977,11 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" t="b">
         <v>0</v>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G178" t="b">
@@ -7051,11 +7051,11 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" t="b">
         <v>0</v>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G180" t="b">
@@ -7125,11 +7125,11 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" t="b">
         <v>0</v>
@@ -7162,11 +7162,11 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="b">
         <v>0</v>
@@ -7199,7 +7199,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G183" t="b">
@@ -7236,11 +7236,11 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" t="b">
         <v>0</v>
@@ -7273,11 +7273,11 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" t="b">
         <v>0</v>
@@ -7310,11 +7310,11 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186" t="b">
         <v>0</v>
@@ -7347,11 +7347,11 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187" t="b">
         <v>0</v>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G188" t="b">
@@ -7421,11 +7421,11 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" t="b">
         <v>0</v>
@@ -7458,11 +7458,11 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" t="b">
         <v>0</v>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G191" t="b">
@@ -7532,11 +7532,11 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="b">
         <v>0</v>
@@ -7569,11 +7569,11 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="b">
         <v>0</v>
@@ -7606,11 +7606,11 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" t="b">
         <v>0</v>
@@ -7643,11 +7643,11 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="b">
         <v>0</v>
@@ -7680,7 +7680,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G196" t="b">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G197" t="b">
@@ -7754,7 +7754,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G198" t="b">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G199" t="b">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G200" t="b">
@@ -7865,11 +7865,11 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" t="b">
         <v>0</v>
@@ -7902,7 +7902,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G202" t="b">
@@ -7939,11 +7939,11 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="b">
         <v>0</v>
@@ -7976,11 +7976,11 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204" t="b">
         <v>0</v>
@@ -8013,11 +8013,11 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" t="b">
         <v>0</v>
@@ -8050,11 +8050,11 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="b">
         <v>0</v>
@@ -8083,11 +8083,11 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" t="b">
         <v>0</v>
@@ -8116,11 +8116,11 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208" t="b">
         <v>0</v>
@@ -8149,11 +8149,11 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209" t="b">
         <v>0</v>
@@ -8182,11 +8182,11 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210" t="b">
         <v>0</v>
@@ -8215,11 +8215,11 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211" t="b">
         <v>0</v>
@@ -8248,11 +8248,11 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" t="b">
         <v>0</v>
@@ -8281,11 +8281,11 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" t="b">
         <v>0</v>
@@ -8314,11 +8314,11 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" t="b">
         <v>0</v>
@@ -8347,7 +8347,7 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -8380,7 +8380,7 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G216" t="b">
@@ -8413,7 +8413,7 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G217" t="b">
@@ -8446,7 +8446,7 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G218" t="b">
@@ -8479,7 +8479,7 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G219" t="b">
@@ -8512,7 +8512,7 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G220" t="b">
@@ -8545,7 +8545,7 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G221" t="b">
@@ -8578,11 +8578,11 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222" t="b">
         <v>0</v>
@@ -8611,11 +8611,11 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223" t="b">
         <v>0</v>
@@ -8644,7 +8644,7 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G224" t="b">
@@ -8677,11 +8677,11 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225" t="b">
         <v>0</v>
@@ -8710,11 +8710,11 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226" t="b">
         <v>0</v>
@@ -8743,11 +8743,11 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227" t="b">
         <v>0</v>
@@ -8776,7 +8776,7 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G228" t="b">
@@ -8809,11 +8809,11 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229" t="b">
         <v>0</v>
@@ -8842,7 +8842,7 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G230" t="b">
@@ -8875,11 +8875,11 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231" t="b">
         <v>0</v>
@@ -8908,7 +8908,7 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G232" t="b">
@@ -8941,11 +8941,11 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233" t="b">
         <v>0</v>
@@ -8978,7 +8978,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G234" t="b">
@@ -9015,7 +9015,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G235" t="b">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -9085,7 +9085,7 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G237" t="b">
@@ -9118,7 +9118,7 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G238" t="b">
@@ -9143,7 +9143,7 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G239" t="b">
@@ -9176,7 +9176,7 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G240" t="b">
@@ -9209,11 +9209,11 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241" t="b">
         <v>0</v>
@@ -9242,11 +9242,11 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242" t="b">
         <v>0</v>
@@ -9279,11 +9279,11 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243" t="b">
         <v>0</v>
@@ -9316,11 +9316,11 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244" t="b">
         <v>0</v>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G245" t="b">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G246" t="b">
@@ -9427,11 +9427,11 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247" t="b">
         <v>0</v>
@@ -9464,11 +9464,11 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248" t="b">
         <v>0</v>
@@ -9501,11 +9501,11 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249" t="b">
         <v>0</v>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G250" t="b">
@@ -9575,7 +9575,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G251" t="b">
@@ -9600,7 +9600,7 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G252" t="b">
@@ -9625,7 +9625,7 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G253" t="b">
@@ -9650,7 +9650,7 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G254" t="b">
@@ -9683,11 +9683,11 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255" t="b">
         <v>0</v>
@@ -9716,7 +9716,7 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G256" t="b">
@@ -9749,11 +9749,11 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257" t="b">
         <v>0</v>
@@ -9782,11 +9782,11 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258" t="b">
         <v>0</v>
@@ -9815,7 +9815,7 @@
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G259" t="b">
@@ -9848,11 +9848,11 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260" t="b">
         <v>0</v>
@@ -9881,7 +9881,7 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G261" t="b">
@@ -9914,11 +9914,11 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262" t="b">
         <v>0</v>
@@ -9947,11 +9947,11 @@
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263" t="b">
         <v>0</v>
@@ -9980,7 +9980,7 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G264" t="b">
@@ -10013,11 +10013,11 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H265" t="b">
         <v>0</v>
@@ -10046,11 +10046,11 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266" t="b">
         <v>0</v>
@@ -10079,11 +10079,11 @@
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267" t="b">
         <v>0</v>
@@ -10112,11 +10112,11 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268" t="b">
         <v>0</v>
@@ -10145,11 +10145,11 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269" t="b">
         <v>0</v>
@@ -10178,11 +10178,11 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270" t="b">
         <v>0</v>
@@ -10211,11 +10211,11 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271" t="b">
         <v>0</v>
@@ -10244,11 +10244,11 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H272" t="b">
         <v>0</v>
@@ -10277,11 +10277,11 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273" t="b">
         <v>0</v>
@@ -10310,11 +10310,11 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274" t="b">
         <v>0</v>
@@ -10343,11 +10343,11 @@
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275" t="b">
         <v>0</v>
@@ -10376,7 +10376,7 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G276" t="b">
@@ -10409,7 +10409,7 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G277" t="b">
@@ -10442,7 +10442,7 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G278" t="b">
@@ -10475,11 +10475,11 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H279" t="b">
         <v>0</v>
@@ -10508,11 +10508,11 @@
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280" t="b">
         <v>0</v>
@@ -10541,11 +10541,11 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281" t="b">
         <v>0</v>
@@ -10574,11 +10574,11 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H282" t="b">
         <v>0</v>
@@ -10607,11 +10607,11 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H283" t="b">
         <v>0</v>
@@ -10640,11 +10640,11 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H284" t="b">
         <v>0</v>
@@ -10673,11 +10673,11 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H285" t="b">
         <v>0</v>
@@ -10706,11 +10706,11 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H286" t="b">
         <v>0</v>
@@ -10739,11 +10739,11 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H287" t="b">
         <v>0</v>
@@ -10772,7 +10772,7 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G288" t="b">
@@ -10805,7 +10805,7 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G289" t="b">
@@ -10838,11 +10838,11 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H290" t="b">
         <v>0</v>
@@ -10871,11 +10871,11 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H291" t="b">
         <v>0</v>
@@ -10904,11 +10904,11 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H292" t="b">
         <v>0</v>
@@ -10937,11 +10937,11 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H293" t="b">
         <v>0</v>
@@ -10970,11 +10970,11 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294" t="b">
         <v>0</v>
@@ -11003,11 +11003,11 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H295" t="b">
         <v>0</v>
@@ -11036,7 +11036,7 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G296" t="b">
@@ -11069,11 +11069,11 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H297" t="b">
         <v>0</v>
@@ -11102,11 +11102,11 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H298" t="b">
         <v>0</v>
@@ -11135,11 +11135,11 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H299" t="b">
         <v>0</v>
@@ -11168,11 +11168,11 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H300" t="b">
         <v>0</v>
@@ -11201,11 +11201,11 @@
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H301" t="b">
         <v>0</v>
@@ -11234,7 +11234,7 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G302" t="b">
@@ -11267,11 +11267,11 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H303" t="b">
         <v>0</v>
@@ -11300,7 +11300,7 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G304" t="b">
@@ -11333,11 +11333,11 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H305" t="b">
         <v>0</v>
@@ -11366,11 +11366,11 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H306" t="b">
         <v>0</v>
@@ -11399,11 +11399,11 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H307" t="b">
         <v>0</v>
@@ -11432,11 +11432,11 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H308" t="b">
         <v>0</v>
@@ -11465,11 +11465,11 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H309" t="b">
         <v>0</v>
@@ -11498,11 +11498,11 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H310" t="b">
         <v>0</v>
@@ -11531,11 +11531,11 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H311" t="b">
         <v>0</v>
@@ -11564,11 +11564,11 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H312" t="b">
         <v>0</v>
@@ -11597,11 +11597,11 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H313" t="b">
         <v>0</v>
@@ -11630,11 +11630,11 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H314" t="b">
         <v>0</v>
@@ -11663,11 +11663,11 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H315" t="b">
         <v>0</v>
@@ -11696,7 +11696,7 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G316" t="b">
@@ -11729,11 +11729,11 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H317" t="b">
         <v>0</v>
@@ -11762,11 +11762,11 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H318" t="b">
         <v>0</v>
@@ -11795,11 +11795,11 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H319" t="b">
         <v>0</v>
@@ -11828,11 +11828,11 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H320" t="b">
         <v>0</v>
@@ -11861,11 +11861,11 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H321" t="b">
         <v>0</v>
@@ -11894,11 +11894,11 @@
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H322" t="b">
         <v>0</v>
@@ -11927,11 +11927,11 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H323" t="b">
         <v>0</v>
@@ -11960,11 +11960,11 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H324" t="b">
         <v>0</v>
@@ -11993,7 +11993,7 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G325" t="b">
@@ -12026,11 +12026,11 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H326" t="b">
         <v>0</v>
@@ -12059,7 +12059,7 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G327" t="b">
@@ -12092,11 +12092,11 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H328" t="b">
         <v>0</v>
@@ -12125,7 +12125,7 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G329" t="b">
@@ -12158,7 +12158,7 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G330" t="b">
@@ -12191,7 +12191,7 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G331" t="b">
@@ -12224,7 +12224,7 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G332" t="b">
@@ -12257,7 +12257,7 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G333" t="b">
@@ -12290,11 +12290,11 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H334" t="b">
         <v>0</v>
@@ -12323,11 +12323,11 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H335" t="b">
         <v>0</v>
@@ -12356,11 +12356,11 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H336" t="b">
         <v>0</v>
@@ -12389,7 +12389,7 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G337" t="b">
@@ -12422,11 +12422,11 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H338" t="b">
         <v>0</v>
@@ -12455,7 +12455,7 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G339" t="b">
@@ -12488,11 +12488,11 @@
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H340" t="b">
         <v>0</v>
@@ -12521,11 +12521,11 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H341" t="b">
         <v>0</v>
@@ -12554,11 +12554,11 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H342" t="b">
         <v>0</v>
@@ -12587,11 +12587,11 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H343" t="b">
         <v>0</v>
@@ -12620,7 +12620,7 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G344" t="b">
@@ -12653,11 +12653,11 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H345" t="b">
         <v>0</v>
@@ -12686,11 +12686,11 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H346" t="b">
         <v>0</v>
@@ -12719,11 +12719,11 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H347" t="b">
         <v>0</v>
@@ -12744,7 +12744,7 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G348" t="b">
@@ -12777,7 +12777,7 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G349" t="b">
@@ -12810,11 +12810,11 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H350" t="b">
         <v>0</v>
@@ -12835,7 +12835,7 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G351" t="b">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G352" t="b">
@@ -12893,7 +12893,7 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G353" t="b">
@@ -12926,7 +12926,7 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G354" t="b">
@@ -12959,11 +12959,11 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H355" t="b">
         <v>0</v>
@@ -12992,11 +12992,11 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H356" t="b">
         <v>0</v>
@@ -13025,7 +13025,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G357" t="b">
@@ -13054,7 +13054,7 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G358" t="b">
@@ -13083,11 +13083,11 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H359" t="b">
         <v>0</v>
@@ -13112,7 +13112,7 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G360" t="b">
@@ -13149,7 +13149,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G361" t="b">
@@ -13186,11 +13186,11 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H362" t="b">
         <v>0</v>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G363" t="b">
@@ -13252,11 +13252,11 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H364" t="b">
         <v>0</v>
@@ -13285,7 +13285,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G365" t="b">
@@ -13322,7 +13322,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G366" t="b">
@@ -13359,11 +13359,11 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H367" t="b">
         <v>0</v>
@@ -13396,11 +13396,11 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H368" t="b">
         <v>0</v>
@@ -13433,7 +13433,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G369" t="b">
@@ -13462,7 +13462,7 @@
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G370" t="b">
@@ -13495,7 +13495,7 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G371" t="b">
@@ -13528,7 +13528,7 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2025-09-08 00:39:59</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G372" t="b">
@@ -13565,11 +13565,11 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H373" t="b">
         <v>0</v>
@@ -13602,11 +13602,11 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H374" t="b">
         <v>0</v>
@@ -13639,11 +13639,11 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H375" t="b">
         <v>0</v>
@@ -13672,7 +13672,7 @@
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G376" t="b">
@@ -13709,11 +13709,11 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H377" t="b">
         <v>0</v>
@@ -13746,7 +13746,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G378" t="b">
@@ -13783,11 +13783,11 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H379" t="b">
         <v>0</v>
@@ -13820,11 +13820,11 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H380" t="b">
         <v>0</v>
@@ -13857,7 +13857,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G381" t="b">
@@ -13894,7 +13894,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G382" t="b">
@@ -13931,11 +13931,11 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H383" t="b">
         <v>0</v>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G384" t="b">
@@ -14005,11 +14005,11 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H385" t="b">
         <v>0</v>
@@ -14034,11 +14034,11 @@
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H386" t="b">
         <v>0</v>
@@ -14071,11 +14071,11 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H387" t="b">
         <v>0</v>
@@ -14108,11 +14108,11 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H388" t="b">
         <v>0</v>
@@ -14137,7 +14137,7 @@
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G389" t="b">
@@ -14166,7 +14166,7 @@
       <c r="E390" t="inlineStr"/>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G390" t="b">
@@ -14195,11 +14195,11 @@
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H391" t="b">
         <v>0</v>
@@ -14224,11 +14224,11 @@
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H392" t="b">
         <v>0</v>
@@ -14249,11 +14249,11 @@
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H393" t="b">
         <v>0</v>
@@ -14274,7 +14274,7 @@
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G394" t="b">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H395" t="b">
         <v>0</v>
@@ -14348,11 +14348,11 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H396" t="b">
         <v>0</v>
@@ -14385,11 +14385,11 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H397" t="b">
         <v>0</v>
@@ -14422,11 +14422,11 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H398" t="b">
         <v>0</v>
@@ -14459,7 +14459,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G399" t="b">
@@ -14496,7 +14496,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G400" t="b">
@@ -14533,11 +14533,11 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H401" t="b">
         <v>0</v>
@@ -14570,7 +14570,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G402" t="b">
@@ -14607,7 +14607,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G403" t="b">
@@ -14644,11 +14644,11 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H404" t="b">
         <v>0</v>
@@ -14681,11 +14681,11 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H405" t="b">
         <v>0</v>
@@ -14710,7 +14710,7 @@
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G406" t="b">
@@ -14747,11 +14747,11 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H407" t="b">
         <v>0</v>
@@ -14784,11 +14784,11 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H408" t="b">
         <v>0</v>
@@ -14821,11 +14821,11 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H409" t="b">
         <v>0</v>
@@ -14858,11 +14858,11 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H410" t="b">
         <v>0</v>
@@ -14895,7 +14895,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G411" t="b">
@@ -14932,11 +14932,11 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H412" t="b">
         <v>0</v>
@@ -14969,11 +14969,11 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H413" t="b">
         <v>0</v>
@@ -15006,11 +15006,11 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H414" t="b">
         <v>0</v>
@@ -15043,11 +15043,11 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H415" t="b">
         <v>0</v>
@@ -15080,11 +15080,11 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H416" t="b">
         <v>0</v>
@@ -15117,11 +15117,11 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H417" t="b">
         <v>0</v>
@@ -15154,11 +15154,11 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H418" t="b">
         <v>0</v>
@@ -15191,11 +15191,11 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H419" t="b">
         <v>0</v>
@@ -15228,11 +15228,11 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H420" t="b">
         <v>0</v>
@@ -15265,11 +15265,11 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H421" t="b">
         <v>0</v>
@@ -15302,11 +15302,11 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H422" t="b">
         <v>0</v>
@@ -15339,11 +15339,11 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G423" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H423" t="b">
         <v>0</v>
@@ -15372,7 +15372,7 @@
       <c r="E424" t="inlineStr"/>
       <c r="F424" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G424" t="b">
@@ -15401,11 +15401,11 @@
       <c r="E425" t="inlineStr"/>
       <c r="F425" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H425" t="b">
         <v>0</v>
@@ -15430,11 +15430,11 @@
       <c r="E426" t="inlineStr"/>
       <c r="F426" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H426" t="b">
         <v>0</v>
@@ -15459,11 +15459,11 @@
       <c r="E427" t="inlineStr"/>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H427" t="b">
         <v>0</v>
@@ -15492,7 +15492,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G428" t="b">
@@ -15529,11 +15529,11 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G429" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H429" t="b">
         <v>0</v>
@@ -15566,11 +15566,11 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H430" t="b">
         <v>0</v>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G431" t="b">
@@ -15640,11 +15640,11 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G432" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H432" t="b">
         <v>0</v>
@@ -15677,11 +15677,11 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H433" t="b">
         <v>0</v>
@@ -15714,11 +15714,11 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H434" t="b">
         <v>0</v>
@@ -15743,16 +15743,2327 @@
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="inlineStr">
         <is>
-          <t>2025-09-08 07:11:08</t>
+          <t>2025-09-08 18:30:37</t>
         </is>
       </c>
       <c r="G435" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H435" t="b">
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>435</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Dr Veronica Mubanga</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>AZWIM</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Luyansha</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G436" t="b">
+        <v>1</v>
+      </c>
+      <c r="H436" t="b">
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>436</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>leyson Mudenda</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>fwetu</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>chisamba</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G437" t="b">
+        <v>0</v>
+      </c>
+      <c r="H437" t="b">
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>437</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Levyson Mudenda</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>fwetu</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>Chisamba</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G438" t="b">
+        <v>1</v>
+      </c>
+      <c r="H438" t="b">
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>438</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Thole Lameck</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Panel</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Ndola</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G439" t="b">
+        <v>1</v>
+      </c>
+      <c r="H439" t="b">
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>439</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>George Siyunda</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>FDCU</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G440" t="b">
+        <v>1</v>
+      </c>
+      <c r="H440" t="b">
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>440</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Elmeda Sichone</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Ministry of Labour</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G441" t="b">
+        <v>1</v>
+      </c>
+      <c r="H441" t="b">
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>441</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Thomson Fungwa</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Minera Refineries</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G442" t="b">
+        <v>1</v>
+      </c>
+      <c r="H442" t="b">
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>442</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Angela Mulenga</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>MADI</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G443" t="b">
+        <v>1</v>
+      </c>
+      <c r="H443" t="b">
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>443</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Alender Lawrence</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Lusaka Cham,ber of Commerce</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G444" t="b">
+        <v>1</v>
+      </c>
+      <c r="H444" t="b">
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>444</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Sekwani Chilembo</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>ZCM</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G445" t="b">
+        <v>1</v>
+      </c>
+      <c r="H445" t="b">
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>445</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Milton Lungu</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Media- ZANIS</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G446" t="b">
+        <v>1</v>
+      </c>
+      <c r="H446" t="b">
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>446</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Runiah Sakala</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Media-Zanis</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G447" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" t="b">
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>447</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Chandamali Phelosoper Type</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Vineyard MPCS</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Kasempa</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>North-western</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G448" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" t="b">
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>448</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Chilengi John</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>vineyard MPCS</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Kasempa</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>North-western</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G449" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" t="b">
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>449</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Sailunga Gift</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Sitepe</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>Kasempa</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>North-Western</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G450" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" t="b">
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>450</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Luache Aru</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>South Sudan</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G451" t="b">
+        <v>1</v>
+      </c>
+      <c r="H451" t="b">
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>451</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Robert Makur Dok</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>South Sudan</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G452" t="b">
+        <v>1</v>
+      </c>
+      <c r="H452" t="b">
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>452</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Lutangu Daisy Mwilima</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="b">
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>453</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Moses Luneta</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Mindeco Small Mine Ltd</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="b">
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>454</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Kelvin Chifulumo</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Educating Girls and Young Women for Development- EGYD</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="b">
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>455</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Izak Efrati</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>FSM</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>Lusak</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="b">
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>456</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Pethias Kafwimbi</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>UPND</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Ndola</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="b">
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>457</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Goffrey Chisha</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>UPND</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Ndola</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="b">
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>458</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Albert Chola</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>UPND</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>Mufurila</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="b">
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>459</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Brian Kambeu</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>UPND</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Mufurila</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G460" t="b">
+        <v>1</v>
+      </c>
+      <c r="H460" t="b">
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>460</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Bwembya Emmanuel</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>UPND</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Mufurila</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G461" t="b">
+        <v>1</v>
+      </c>
+      <c r="H461" t="b">
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>461</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Mudenda Victor</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Bwacha Mining</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Ndola</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G462" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" t="b">
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>462</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Austin Gwaba</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>H&amp;k INVST</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Lufwanyama</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G463" t="b">
+        <v>1</v>
+      </c>
+      <c r="H463" t="b">
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>463</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Nathan Phiri</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Jasper Bell</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Lufwanyama</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G464" t="b">
+        <v>0</v>
+      </c>
+      <c r="H464" t="b">
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>464</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Claude Kalumba</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Minera Refineries Zambia Limited</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G465" t="b">
+        <v>1</v>
+      </c>
+      <c r="H465" t="b">
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>465</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Brian Chansa</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Minera Refineries Zambia Limited</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>lusaka</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G466" t="b">
+        <v>0</v>
+      </c>
+      <c r="H466" t="b">
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>466</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Alfred Lapson Sikazwe</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Podask Extract Mining Limited</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Mwinilunga</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>North-Western</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G467" t="b">
+        <v>1</v>
+      </c>
+      <c r="H467" t="b">
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>467</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Phebian Chewe</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>FZMAZ</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Kitwe</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G468" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" t="b">
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>468</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>chanda  Mayaka</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Tweleshe Cooperatives</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Chisamba</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>Central Province</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G469" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" t="b">
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>469</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Chibwe lwamba</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Fusion mining</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G470" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" t="b">
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>470</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Daniel  yumba</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Tweleshe</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>Chisamba</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G471" t="b">
+        <v>1</v>
+      </c>
+      <c r="H471" t="b">
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>471</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Rhoda Muchinga</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Tweleshe cooperative</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Chisamba</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G472" t="b">
+        <v>1</v>
+      </c>
+      <c r="H472" t="b">
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>472</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>chanda mayaka</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr"/>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Chisamba</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>Central province</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:30:37</t>
+        </is>
+      </c>
+      <c r="G473" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" t="b">
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>473</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Sonny Simwapenga</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Kamuselula Mining Cooperative</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>Kalumbila</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>North-western</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:41:49</t>
+        </is>
+      </c>
+      <c r="G474" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" t="b">
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>474</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Chinyama Selwa</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr"/>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Kalumbila</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>North-western</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:41:49</t>
+        </is>
+      </c>
+      <c r="G475" t="b">
+        <v>1</v>
+      </c>
+      <c r="H475" t="b">
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>475</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Levy Kasanda</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>Mansa</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>Luapula</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:41:49</t>
+        </is>
+      </c>
+      <c r="G476" t="b">
+        <v>1</v>
+      </c>
+      <c r="H476" t="b">
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>476</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Allan Azambo</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Kaole New Dawn</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Mansa</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Luapula</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:41:49</t>
+        </is>
+      </c>
+      <c r="G477" t="b">
+        <v>1</v>
+      </c>
+      <c r="H477" t="b">
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>477</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Kelvin Kalindi</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Mwatwiinda Multi-purpose Cooperative LTD</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Mansa</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>Luapula</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:41:49</t>
+        </is>
+      </c>
+      <c r="G478" t="b">
+        <v>1</v>
+      </c>
+      <c r="H478" t="b">
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>478</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Luminda Sungete</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Mwatwiinda Multi-purpose Cooperative LTD</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Mansa</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>Luapula</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:41:49</t>
+        </is>
+      </c>
+      <c r="G479" t="b">
+        <v>1</v>
+      </c>
+      <c r="H479" t="b">
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>479</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Goma Abiad</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Chama Minerals Resources LTD</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>Chama</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:41:49</t>
+        </is>
+      </c>
+      <c r="G480" t="b">
+        <v>1</v>
+      </c>
+      <c r="H480" t="b">
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>480</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Jonathan Goma</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Chama Minerals Resources LTD</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Chama</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:41:49</t>
+        </is>
+      </c>
+      <c r="G481" t="b">
+        <v>1</v>
+      </c>
+      <c r="H481" t="b">
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>481</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Y'hoshua Chibesakunda</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>YOSEF Ventures</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>Chama</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:41:49</t>
+        </is>
+      </c>
+      <c r="G482" t="b">
+        <v>1</v>
+      </c>
+      <c r="H482" t="b">
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>482</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Moffat Chileshe</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Germ Gardens</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Lufwanyama</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:41:49</t>
+        </is>
+      </c>
+      <c r="G483" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" t="b">
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>483</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Beauty Kateba</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Blessing Cooperative</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Mumbwa</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>2025-09-08 18:41:49</t>
+        </is>
+      </c>
+      <c r="G484" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" t="b">
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>484</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Kristina Kanche</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>AZMEC</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>2025-09-08 19:07:17</t>
+        </is>
+      </c>
+      <c r="G485" t="b">
+        <v>1</v>
+      </c>
+      <c r="H485" t="b">
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>485</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Faides TembaTemba</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>ActionAid</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>2025-09-08 19:07:17</t>
+        </is>
+      </c>
+      <c r="G486" t="b">
+        <v>1</v>
+      </c>
+      <c r="H486" t="b">
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>486</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Mutinta Hadunka</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>ZEITI</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>2025-09-08 19:07:17</t>
+        </is>
+      </c>
+      <c r="G487" t="b">
+        <v>1</v>
+      </c>
+      <c r="H487" t="b">
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>487</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Julio C. Mobela</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Solwezi</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>North Western</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>2025-09-08 19:07:17</t>
+        </is>
+      </c>
+      <c r="G488" t="b">
+        <v>1</v>
+      </c>
+      <c r="H488" t="b">
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>488</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Reagan Chanda</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Chamula Resources Ltd Company</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>2025-09-08 19:07:17</t>
+        </is>
+      </c>
+      <c r="G489" t="b">
+        <v>1</v>
+      </c>
+      <c r="H489" t="b">
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>489</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Everister Zulu</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>WETVAZ</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>kabwe</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>2025-09-08 19:07:17</t>
+        </is>
+      </c>
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="b">
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>490</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Yalwa sinyangwe</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr"/>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>2025-09-08 19:07:17</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="b">
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>491</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Manako Siakakole</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>ICGLR</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>2025-09-08 19:07:17</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="b">
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>492</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Edward Lange</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>SARW</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Ndola</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>2025-09-08 19:07:17</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="b">
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>493</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Jashir Kunhimon</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>South  Sudan</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>2025-09-08 19:27:04</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="b">
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>494</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Bwalya Bruno Chisambo</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Bmb media</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:15:56</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>0</v>
+      </c>
+      <c r="H495" t="b">
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>495</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Kaddy  kadilila</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>NWPSSMA</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Zambezi</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>Northwestern</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:15:56</t>
+        </is>
+      </c>
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="b">
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>496</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Thom Makondo</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>NWSSMA</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Solwezi</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:15:56</t>
+        </is>
+      </c>
+      <c r="G497" t="b">
+        <v>1</v>
+      </c>
+      <c r="H497" t="b">
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>497</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>malay</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>2025-09-09 00:15:56</t>
+        </is>
+      </c>
+      <c r="G498" t="b">
+        <v>0</v>
+      </c>
+      <c r="H498" t="b">
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/conference_registrations.xlsx
+++ b/conference_registrations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I498"/>
+  <dimension ref="A1:I512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -543,14 +543,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -617,7 +617,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -654,7 +654,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -691,7 +691,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -728,7 +728,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -765,7 +765,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -802,7 +802,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -839,7 +839,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -876,7 +876,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G13" t="b">
@@ -950,7 +950,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -987,7 +987,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G22" t="b">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G36" t="b">
@@ -1801,14 +1801,14 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1838,14 +1838,14 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G39" t="b">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2208,14 +2208,14 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G60" t="b">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -2726,14 +2726,14 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G71" t="b">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G72" t="b">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G74" t="b">
@@ -3207,14 +3207,14 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G76" t="b">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G77" t="b">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -3392,14 +3392,14 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G88" t="b">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G89" t="b">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G90" t="b">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G91" t="b">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G92" t="b">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G93" t="b">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G94" t="b">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G95" t="b">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G96" t="b">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G97" t="b">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G99" t="b">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G100" t="b">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G101" t="b">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G102" t="b">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G103" t="b">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G104" t="b">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G105" t="b">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G106" t="b">
@@ -4391,14 +4391,14 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G108" t="b">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G109" t="b">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G110" t="b">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G112" t="b">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G113" t="b">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G114" t="b">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G115" t="b">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G116" t="b">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G117" t="b">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G119" t="b">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G120" t="b">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G121" t="b">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G122" t="b">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G123" t="b">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G126" t="b">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G127" t="b">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G128" t="b">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G129" t="b">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G130" t="b">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G133" t="b">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G134" t="b">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G135" t="b">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G136" t="b">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G137" t="b">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G139" t="b">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G140" t="b">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G142" t="b">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G143" t="b">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G145" t="b">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G146" t="b">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G147" t="b">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G148" t="b">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G149" t="b">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G150" t="b">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G151" t="b">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G152" t="b">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G153" t="b">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G154" t="b">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G155" t="b">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G156" t="b">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G157" t="b">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G158" t="b">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G161" t="b">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G162" t="b">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G163" t="b">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G164" t="b">
@@ -6533,14 +6533,14 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G165" t="b">
         <v>0</v>
       </c>
       <c r="H165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="inlineStr"/>
     </row>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G166" t="b">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G167" t="b">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G168" t="b">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G169" t="b">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G170" t="b">
@@ -6755,14 +6755,14 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="inlineStr"/>
     </row>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G172" t="b">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G173" t="b">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G174" t="b">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G176" t="b">
@@ -6977,14 +6977,14 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="inlineStr"/>
     </row>
@@ -7014,14 +7014,14 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G178" t="b">
         <v>0</v>
       </c>
       <c r="H178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="inlineStr"/>
     </row>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G179" t="b">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G180" t="b">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G181" t="b">
@@ -7162,7 +7162,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G182" t="b">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G183" t="b">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G184" t="b">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G185" t="b">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G186" t="b">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G187" t="b">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G188" t="b">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G189" t="b">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G190" t="b">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G191" t="b">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G192" t="b">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G193" t="b">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G194" t="b">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G195" t="b">
@@ -7680,7 +7680,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G196" t="b">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G197" t="b">
@@ -7754,7 +7754,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G198" t="b">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G199" t="b">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G200" t="b">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G201" t="b">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G202" t="b">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G203" t="b">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G204" t="b">
@@ -8013,7 +8013,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G205" t="b">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G206" t="b">
@@ -8083,14 +8083,14 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="inlineStr"/>
     </row>
@@ -8116,7 +8116,7 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G208" t="b">
@@ -8149,7 +8149,7 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G209" t="b">
@@ -8182,7 +8182,7 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G210" t="b">
@@ -8215,7 +8215,7 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G211" t="b">
@@ -8248,7 +8248,7 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G212" t="b">
@@ -8281,7 +8281,7 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G213" t="b">
@@ -8314,7 +8314,7 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -8347,7 +8347,7 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -8380,7 +8380,7 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G216" t="b">
@@ -8413,7 +8413,7 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G217" t="b">
@@ -8446,7 +8446,7 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G218" t="b">
@@ -8479,7 +8479,7 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G219" t="b">
@@ -8512,7 +8512,7 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G220" t="b">
@@ -8545,7 +8545,7 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G221" t="b">
@@ -8578,7 +8578,7 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -8611,7 +8611,7 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G223" t="b">
@@ -8644,7 +8644,7 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G224" t="b">
@@ -8677,7 +8677,7 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G225" t="b">
@@ -8710,7 +8710,7 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G226" t="b">
@@ -8743,7 +8743,7 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G227" t="b">
@@ -8776,7 +8776,7 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G228" t="b">
@@ -8809,7 +8809,7 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G229" t="b">
@@ -8842,7 +8842,7 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G230" t="b">
@@ -8875,7 +8875,7 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G231" t="b">
@@ -8908,7 +8908,7 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G232" t="b">
@@ -8941,7 +8941,7 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G233" t="b">
@@ -8978,7 +8978,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G234" t="b">
@@ -9015,7 +9015,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G235" t="b">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -9085,7 +9085,7 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G237" t="b">
@@ -9118,7 +9118,7 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G238" t="b">
@@ -9143,7 +9143,7 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G239" t="b">
@@ -9176,7 +9176,7 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G240" t="b">
@@ -9209,7 +9209,7 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G241" t="b">
@@ -9242,7 +9242,7 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G242" t="b">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G243" t="b">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G244" t="b">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G245" t="b">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G246" t="b">
@@ -9427,7 +9427,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G247" t="b">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G248" t="b">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G249" t="b">
@@ -9538,7 +9538,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G250" t="b">
@@ -9575,7 +9575,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G251" t="b">
@@ -9600,7 +9600,7 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G252" t="b">
@@ -9625,7 +9625,7 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G253" t="b">
@@ -9650,7 +9650,7 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G254" t="b">
@@ -9683,7 +9683,7 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G255" t="b">
@@ -9716,7 +9716,7 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G256" t="b">
@@ -9749,7 +9749,7 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G257" t="b">
@@ -9782,7 +9782,7 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G258" t="b">
@@ -9815,7 +9815,7 @@
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G259" t="b">
@@ -9848,7 +9848,7 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G260" t="b">
@@ -9881,7 +9881,7 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G261" t="b">
@@ -9914,7 +9914,7 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G262" t="b">
@@ -9947,7 +9947,7 @@
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G263" t="b">
@@ -9980,7 +9980,7 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G264" t="b">
@@ -10013,7 +10013,7 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G265" t="b">
@@ -10046,7 +10046,7 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G266" t="b">
@@ -10079,7 +10079,7 @@
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G267" t="b">
@@ -10112,7 +10112,7 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G268" t="b">
@@ -10145,7 +10145,7 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G269" t="b">
@@ -10178,7 +10178,7 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G270" t="b">
@@ -10211,7 +10211,7 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G271" t="b">
@@ -10244,7 +10244,7 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G272" t="b">
@@ -10277,7 +10277,7 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G273" t="b">
@@ -10310,7 +10310,7 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G274" t="b">
@@ -10343,7 +10343,7 @@
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G275" t="b">
@@ -10376,7 +10376,7 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G276" t="b">
@@ -10409,7 +10409,7 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G277" t="b">
@@ -10442,7 +10442,7 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G278" t="b">
@@ -10475,7 +10475,7 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G279" t="b">
@@ -10508,7 +10508,7 @@
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G280" t="b">
@@ -10541,14 +10541,14 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281" t="inlineStr"/>
     </row>
@@ -10574,7 +10574,7 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G282" t="b">
@@ -10607,7 +10607,7 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G283" t="b">
@@ -10640,7 +10640,7 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G284" t="b">
@@ -10673,7 +10673,7 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G285" t="b">
@@ -10706,7 +10706,7 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G286" t="b">
@@ -10739,7 +10739,7 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G287" t="b">
@@ -10772,7 +10772,7 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G288" t="b">
@@ -10805,7 +10805,7 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G289" t="b">
@@ -10838,7 +10838,7 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G290" t="b">
@@ -10871,7 +10871,7 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G291" t="b">
@@ -10904,7 +10904,7 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G292" t="b">
@@ -10937,7 +10937,7 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G293" t="b">
@@ -10970,7 +10970,7 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G294" t="b">
@@ -11003,14 +11003,14 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295" t="inlineStr"/>
     </row>
@@ -11036,7 +11036,7 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G296" t="b">
@@ -11069,7 +11069,7 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G297" t="b">
@@ -11102,7 +11102,7 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G298" t="b">
@@ -11135,7 +11135,7 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G299" t="b">
@@ -11168,7 +11168,7 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G300" t="b">
@@ -11201,7 +11201,7 @@
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G301" t="b">
@@ -11234,7 +11234,7 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G302" t="b">
@@ -11267,7 +11267,7 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G303" t="b">
@@ -11300,7 +11300,7 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G304" t="b">
@@ -11333,7 +11333,7 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G305" t="b">
@@ -11366,7 +11366,7 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G306" t="b">
@@ -11399,14 +11399,14 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G307" t="b">
         <v>1</v>
       </c>
       <c r="H307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307" t="inlineStr"/>
     </row>
@@ -11432,14 +11432,14 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G308" t="b">
         <v>1</v>
       </c>
       <c r="H308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308" t="inlineStr"/>
     </row>
@@ -11465,7 +11465,7 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G309" t="b">
@@ -11498,14 +11498,14 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G310" t="b">
         <v>1</v>
       </c>
       <c r="H310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" t="inlineStr"/>
     </row>
@@ -11531,14 +11531,14 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G311" t="b">
         <v>1</v>
       </c>
       <c r="H311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I311" t="inlineStr"/>
     </row>
@@ -11564,7 +11564,7 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G312" t="b">
@@ -11597,14 +11597,14 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G313" t="b">
         <v>1</v>
       </c>
       <c r="H313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313" t="inlineStr"/>
     </row>
@@ -11630,7 +11630,7 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G314" t="b">
@@ -11663,14 +11663,14 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G315" t="b">
         <v>1</v>
       </c>
       <c r="H315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I315" t="inlineStr"/>
     </row>
@@ -11696,7 +11696,7 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G316" t="b">
@@ -11729,7 +11729,7 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G317" t="b">
@@ -11762,14 +11762,14 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G318" t="b">
         <v>1</v>
       </c>
       <c r="H318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318" t="inlineStr"/>
     </row>
@@ -11795,7 +11795,7 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G319" t="b">
@@ -11828,7 +11828,7 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G320" t="b">
@@ -11861,14 +11861,14 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G321" t="b">
         <v>1</v>
       </c>
       <c r="H321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I321" t="inlineStr"/>
     </row>
@@ -11894,14 +11894,14 @@
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G322" t="b">
         <v>1</v>
       </c>
       <c r="H322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I322" t="inlineStr"/>
     </row>
@@ -11927,14 +11927,14 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G323" t="b">
         <v>1</v>
       </c>
       <c r="H323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I323" t="inlineStr"/>
     </row>
@@ -11960,7 +11960,7 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G324" t="b">
@@ -11993,7 +11993,7 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G325" t="b">
@@ -12026,7 +12026,7 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G326" t="b">
@@ -12059,7 +12059,7 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G327" t="b">
@@ -12092,7 +12092,7 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G328" t="b">
@@ -12125,7 +12125,7 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G329" t="b">
@@ -12158,7 +12158,7 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G330" t="b">
@@ -12191,7 +12191,7 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G331" t="b">
@@ -12224,7 +12224,7 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G332" t="b">
@@ -12257,7 +12257,7 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G333" t="b">
@@ -12290,7 +12290,7 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G334" t="b">
@@ -12323,7 +12323,7 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G335" t="b">
@@ -12356,7 +12356,7 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G336" t="b">
@@ -12389,7 +12389,7 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G337" t="b">
@@ -12422,7 +12422,7 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G338" t="b">
@@ -12455,7 +12455,7 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G339" t="b">
@@ -12488,7 +12488,7 @@
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G340" t="b">
@@ -12521,7 +12521,7 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G341" t="b">
@@ -12554,7 +12554,7 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G342" t="b">
@@ -12587,7 +12587,7 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G343" t="b">
@@ -12620,7 +12620,7 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G344" t="b">
@@ -12653,7 +12653,7 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G345" t="b">
@@ -12686,7 +12686,7 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G346" t="b">
@@ -12719,7 +12719,7 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G347" t="b">
@@ -12744,7 +12744,7 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G348" t="b">
@@ -12777,7 +12777,7 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G349" t="b">
@@ -12810,7 +12810,7 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G350" t="b">
@@ -12835,7 +12835,7 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G351" t="b">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G352" t="b">
@@ -12893,7 +12893,7 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G353" t="b">
@@ -12926,7 +12926,7 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G354" t="b">
@@ -12959,7 +12959,7 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G355" t="b">
@@ -12992,7 +12992,7 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G356" t="b">
@@ -13025,7 +13025,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G357" t="b">
@@ -13054,7 +13054,7 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G358" t="b">
@@ -13083,7 +13083,7 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G359" t="b">
@@ -13112,7 +13112,7 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G360" t="b">
@@ -13149,7 +13149,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G361" t="b">
@@ -13186,7 +13186,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G362" t="b">
@@ -13219,7 +13219,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G363" t="b">
@@ -13252,7 +13252,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G364" t="b">
@@ -13285,7 +13285,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G365" t="b">
@@ -13322,7 +13322,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G366" t="b">
@@ -13359,14 +13359,14 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G367" t="b">
         <v>1</v>
       </c>
       <c r="H367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I367" t="inlineStr"/>
     </row>
@@ -13396,7 +13396,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G368" t="b">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G369" t="b">
@@ -13462,7 +13462,7 @@
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G370" t="b">
@@ -13495,7 +13495,7 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G371" t="b">
@@ -13528,7 +13528,7 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G372" t="b">
@@ -13565,7 +13565,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G373" t="b">
@@ -13602,7 +13602,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G374" t="b">
@@ -13639,7 +13639,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G375" t="b">
@@ -13672,7 +13672,7 @@
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G376" t="b">
@@ -13709,7 +13709,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G377" t="b">
@@ -13746,7 +13746,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G378" t="b">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G379" t="b">
@@ -13820,7 +13820,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G380" t="b">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G381" t="b">
@@ -13894,7 +13894,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G382" t="b">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G383" t="b">
@@ -13968,7 +13968,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G384" t="b">
@@ -14005,7 +14005,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G385" t="b">
@@ -14034,7 +14034,7 @@
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G386" t="b">
@@ -14071,7 +14071,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G387" t="b">
@@ -14108,7 +14108,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G388" t="b">
@@ -14137,7 +14137,7 @@
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G389" t="b">
@@ -14166,7 +14166,7 @@
       <c r="E390" t="inlineStr"/>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G390" t="b">
@@ -14195,7 +14195,7 @@
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G391" t="b">
@@ -14224,7 +14224,7 @@
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G392" t="b">
@@ -14249,7 +14249,7 @@
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G393" t="b">
@@ -14274,7 +14274,7 @@
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G394" t="b">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G395" t="b">
@@ -14348,14 +14348,14 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G396" t="b">
         <v>1</v>
       </c>
       <c r="H396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I396" t="inlineStr"/>
     </row>
@@ -14385,7 +14385,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G397" t="b">
@@ -14422,7 +14422,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G398" t="b">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G399" t="b">
@@ -14496,7 +14496,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G400" t="b">
@@ -14533,7 +14533,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G401" t="b">
@@ -14570,7 +14570,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G402" t="b">
@@ -14607,7 +14607,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G403" t="b">
@@ -14644,7 +14644,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G404" t="b">
@@ -14681,7 +14681,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G405" t="b">
@@ -14710,7 +14710,7 @@
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G406" t="b">
@@ -14747,7 +14747,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G407" t="b">
@@ -14784,7 +14784,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G408" t="b">
@@ -14821,7 +14821,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G409" t="b">
@@ -14858,7 +14858,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G410" t="b">
@@ -14895,7 +14895,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G411" t="b">
@@ -14932,7 +14932,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G412" t="b">
@@ -14969,7 +14969,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G413" t="b">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G414" t="b">
@@ -15043,7 +15043,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G415" t="b">
@@ -15080,7 +15080,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G416" t="b">
@@ -15117,7 +15117,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G417" t="b">
@@ -15154,7 +15154,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G418" t="b">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G419" t="b">
@@ -15228,7 +15228,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G420" t="b">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G421" t="b">
@@ -15302,7 +15302,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G422" t="b">
@@ -15339,7 +15339,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G423" t="b">
@@ -15372,7 +15372,7 @@
       <c r="E424" t="inlineStr"/>
       <c r="F424" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G424" t="b">
@@ -15401,7 +15401,7 @@
       <c r="E425" t="inlineStr"/>
       <c r="F425" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G425" t="b">
@@ -15430,7 +15430,7 @@
       <c r="E426" t="inlineStr"/>
       <c r="F426" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G426" t="b">
@@ -15459,7 +15459,7 @@
       <c r="E427" t="inlineStr"/>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G427" t="b">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G428" t="b">
@@ -15529,7 +15529,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G429" t="b">
@@ -15566,7 +15566,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G430" t="b">
@@ -15603,7 +15603,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G431" t="b">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G432" t="b">
@@ -15677,7 +15677,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G433" t="b">
@@ -15714,7 +15714,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G434" t="b">
@@ -15743,7 +15743,7 @@
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G435" t="b">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G436" t="b">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G437" t="b">
@@ -15854,7 +15854,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G438" t="b">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G439" t="b">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G440" t="b">
@@ -15965,14 +15965,14 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G441" t="b">
         <v>1</v>
       </c>
       <c r="H441" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I441" t="inlineStr"/>
     </row>
@@ -16002,7 +16002,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G442" t="b">
@@ -16039,7 +16039,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G443" t="b">
@@ -16076,7 +16076,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G444" t="b">
@@ -16113,7 +16113,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G445" t="b">
@@ -16150,7 +16150,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G446" t="b">
@@ -16187,7 +16187,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G447" t="b">
@@ -16224,7 +16224,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G448" t="b">
@@ -16261,7 +16261,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G449" t="b">
@@ -16298,7 +16298,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G450" t="b">
@@ -16335,7 +16335,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G451" t="b">
@@ -16372,7 +16372,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G452" t="b">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G453" t="b">
@@ -16446,7 +16446,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G454" t="b">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G455" t="b">
@@ -16520,7 +16520,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G456" t="b">
@@ -16557,7 +16557,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G457" t="b">
@@ -16594,7 +16594,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G458" t="b">
@@ -16631,7 +16631,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G459" t="b">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G460" t="b">
@@ -16705,7 +16705,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G461" t="b">
@@ -16742,7 +16742,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G462" t="b">
@@ -16779,7 +16779,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G463" t="b">
@@ -16816,7 +16816,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G464" t="b">
@@ -16853,7 +16853,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G465" t="b">
@@ -16890,7 +16890,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G466" t="b">
@@ -16927,7 +16927,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G467" t="b">
@@ -16964,7 +16964,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G468" t="b">
@@ -17001,14 +17001,14 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G469" t="b">
         <v>1</v>
       </c>
       <c r="H469" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I469" t="inlineStr"/>
     </row>
@@ -17038,7 +17038,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G470" t="b">
@@ -17075,7 +17075,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G471" t="b">
@@ -17112,14 +17112,14 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G472" t="b">
         <v>1</v>
       </c>
       <c r="H472" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I472" t="inlineStr"/>
     </row>
@@ -17145,7 +17145,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>2025-09-08 18:30:37</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G473" t="b">
@@ -17182,7 +17182,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>2025-09-08 18:41:49</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G474" t="b">
@@ -17215,7 +17215,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>2025-09-08 18:41:49</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G475" t="b">
@@ -17248,7 +17248,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>2025-09-08 18:41:49</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G476" t="b">
@@ -17285,7 +17285,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>2025-09-08 18:41:49</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G477" t="b">
@@ -17322,7 +17322,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>2025-09-08 18:41:49</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G478" t="b">
@@ -17359,7 +17359,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>2025-09-08 18:41:49</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G479" t="b">
@@ -17396,7 +17396,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>2025-09-08 18:41:49</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G480" t="b">
@@ -17433,7 +17433,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>2025-09-08 18:41:49</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G481" t="b">
@@ -17470,7 +17470,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>2025-09-08 18:41:49</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G482" t="b">
@@ -17507,7 +17507,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>2025-09-08 18:41:49</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G483" t="b">
@@ -17544,7 +17544,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>2025-09-08 18:41:49</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G484" t="b">
@@ -17581,7 +17581,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>2025-09-08 19:07:17</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G485" t="b">
@@ -17618,7 +17618,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>2025-09-08 19:07:17</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G486" t="b">
@@ -17655,7 +17655,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>2025-09-08 19:07:17</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G487" t="b">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>2025-09-08 19:07:17</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G488" t="b">
@@ -17725,7 +17725,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>2025-09-08 19:07:17</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G489" t="b">
@@ -17762,7 +17762,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>2025-09-08 19:07:17</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G490" t="b">
@@ -17795,7 +17795,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>2025-09-08 19:07:17</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G491" t="b">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>2025-09-08 19:07:17</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G492" t="b">
@@ -17869,7 +17869,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>2025-09-08 19:07:17</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G493" t="b">
@@ -17906,7 +17906,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>2025-09-08 19:27:04</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G494" t="b">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>2025-09-09 00:15:56</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G495" t="b">
@@ -17980,7 +17980,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>2025-09-09 00:15:56</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G496" t="b">
@@ -18017,7 +18017,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>2025-09-09 00:15:56</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G497" t="b">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>2025-09-09 00:15:56</t>
+          <t>2025-09-09 09:03:39</t>
         </is>
       </c>
       <c r="G498" t="b">
@@ -18064,6 +18064,520 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>498</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Lya Ajenjo</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>UNIDO</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:03:39</t>
+        </is>
+      </c>
+      <c r="G499" t="b">
+        <v>0</v>
+      </c>
+      <c r="H499" t="b">
+        <v>1</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>499</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>elliot Muyaba</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>mulibuti</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>kalomo</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>Southern</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:03:39</t>
+        </is>
+      </c>
+      <c r="G500" t="b">
+        <v>1</v>
+      </c>
+      <c r="H500" t="b">
+        <v>1</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>500</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Moses Nyambe</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Make Zambia Great</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>Lusak</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:03:39</t>
+        </is>
+      </c>
+      <c r="G501" t="b">
+        <v>1</v>
+      </c>
+      <c r="H501" t="b">
+        <v>1</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>501</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Sylvia Mooka</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>ZIGMA</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>Mwiuniulunga</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>NorthWestern</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:03:39</t>
+        </is>
+      </c>
+      <c r="G502" t="b">
+        <v>0</v>
+      </c>
+      <c r="H502" t="b">
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>502</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Patson Mukonda</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Fyakukololafye</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Mpika</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>Luapula</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:03:39</t>
+        </is>
+      </c>
+      <c r="G503" t="b">
+        <v>0</v>
+      </c>
+      <c r="H503" t="b">
+        <v>1</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>503</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Chilomo Champion</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Double CC</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Lufwanyama</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>Copperbelt</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:03:39</t>
+        </is>
+      </c>
+      <c r="G504" t="b">
+        <v>1</v>
+      </c>
+      <c r="H504" t="b">
+        <v>1</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>504</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Nachanga Mateu</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Rufunsa</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:03:39</t>
+        </is>
+      </c>
+      <c r="G505" t="b">
+        <v>0</v>
+      </c>
+      <c r="H505" t="b">
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>505</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>MWILA SOLOCHI</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>FDCU</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Solwezi</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>Northern Western</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:03:39</t>
+        </is>
+      </c>
+      <c r="G506" t="b">
+        <v>0</v>
+      </c>
+      <c r="H506" t="b">
+        <v>1</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>506</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Claudio Mussa</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>CPMZ</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Maputo</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>Maputo</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:03:39</t>
+        </is>
+      </c>
+      <c r="G507" t="b">
+        <v>1</v>
+      </c>
+      <c r="H507" t="b">
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>507</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>António Varela</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>CPMZ</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Mozambique</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>Mozambique</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:03:39</t>
+        </is>
+      </c>
+      <c r="G508" t="b">
+        <v>1</v>
+      </c>
+      <c r="H508" t="b">
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>508</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Lorreen chibbonta</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Meloks agencies ltd</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:03:39</t>
+        </is>
+      </c>
+      <c r="G509" t="b">
+        <v>1</v>
+      </c>
+      <c r="H509" t="b">
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>509</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Ernest Lesa</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr"/>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>Lundazi</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>Eastern</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:03:39</t>
+        </is>
+      </c>
+      <c r="G510" t="b">
+        <v>0</v>
+      </c>
+      <c r="H510" t="b">
+        <v>1</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>510</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Nkumbu Chilele</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>planetGold</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>Lusaka</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:03:39</t>
+        </is>
+      </c>
+      <c r="G511" t="b">
+        <v>0</v>
+      </c>
+      <c r="H511" t="b">
+        <v>1</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>511</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Allan</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Nkinsu Gold &amp; Platinum Enterprise</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Mwanza</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>North Western</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>2025-09-09 09:03:39</t>
+        </is>
+      </c>
+      <c r="G512" t="b">
+        <v>1</v>
+      </c>
+      <c r="H512" t="b">
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
